--- a/projects/pso/PSO_Enemy.xlsx
+++ b/projects/pso/PSO_Enemy.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johndellarosa/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D214960-776B-0448-9CB0-AC9FF253EA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CE4399-D990-8B4C-8D08-04DB261B8D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19760" yWindow="500" windowWidth="13480" windowHeight="18680" xr2:uid="{A19BC9D2-BC35-874F-8916-558C82066E38}"/>
+    <workbookView xWindow="17340" yWindow="500" windowWidth="21040" windowHeight="18680" activeTab="3" xr2:uid="{A19BC9D2-BC35-874F-8916-558C82066E38}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ep1 Normal" sheetId="1" r:id="rId1"/>
+    <sheet name="Ep1 Hard" sheetId="3" r:id="rId2"/>
+    <sheet name="Ep1 V Hard" sheetId="4" r:id="rId3"/>
+    <sheet name="Ep1 Ultimate" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="69">
   <si>
     <t>Rag Rappy</t>
   </si>
@@ -239,6 +241,12 @@
   <si>
     <t>Dark Falz (Form 2)</t>
   </si>
+  <si>
+    <t>Canadine (Ring)</t>
+  </si>
+  <si>
+    <t>Dark Falz (Form 3)</t>
+  </si>
 </sst>
 </file>
 
@@ -273,8 +281,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6691B2-7893-6A40-954D-61957A9F3ACD}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H14" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1915,16 +1924,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -1933,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -1942,83 +1951,83 @@
         <v>5</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>70</v>
       </c>
       <c r="O29">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H30">
         <v>100</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>70</v>
       </c>
       <c r="O30">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C31">
         <v>20</v>
       </c>
       <c r="D31">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="E31">
         <v>50</v>
@@ -2027,13 +2036,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H31">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2042,60 +2051,60 @@
         <v>50</v>
       </c>
       <c r="L31">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>28</v>
       </c>
       <c r="N31">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="O31">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32">
-        <v>410</v>
+        <v>180</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>120</v>
+      </c>
+      <c r="H32">
+        <v>111</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="L32">
         <v>85</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>100</v>
-      </c>
-      <c r="H32">
-        <v>42</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
-        <v>50</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>75</v>
-      </c>
       <c r="M32">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N32">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="O32">
         <v>20</v>
@@ -2103,10 +2112,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33">
-        <v>270</v>
+        <v>410</v>
       </c>
       <c r="C33">
         <v>22</v>
@@ -2115,81 +2124,81 @@
         <v>280</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N33">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="O33">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="E34">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H34">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I34">
         <v>8</v>
       </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>85</v>
+      </c>
+      <c r="L34">
         <v>45</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>90</v>
-      </c>
       <c r="M34">
         <v>30</v>
       </c>
       <c r="N34">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O34">
         <v>10</v>
@@ -2197,46 +2206,46 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="E35">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H35">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J35">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N35">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O35">
         <v>10</v>
@@ -2244,63 +2253,63 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="E36">
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>140</v>
+      </c>
+      <c r="H36">
+        <v>119</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>95</v>
+      </c>
+      <c r="K36">
+        <v>45</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>35</v>
+      </c>
+      <c r="N36">
         <v>50</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>110</v>
-      </c>
-      <c r="H36">
-        <v>80</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>50</v>
-      </c>
-      <c r="L36">
-        <v>90</v>
-      </c>
-      <c r="M36">
-        <v>25</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
       <c r="O36">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="E37">
         <v>50</v>
@@ -2312,72 +2321,72 @@
         <v>110</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J37">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L37">
         <v>90</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="E38">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="H38">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J38">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L38">
         <v>90</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N38">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>15</v>
@@ -2385,322 +2394,322 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H39">
+        <v>125</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>90</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-      <c r="K39">
-        <v>80</v>
-      </c>
-      <c r="L39">
-        <v>80</v>
-      </c>
       <c r="M39">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N39">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O39">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="E40">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G40">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H40">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="K40">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M40">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O40">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="E41">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H41">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J41">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K41">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="E42">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="H42">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="I42">
         <v>5</v>
       </c>
       <c r="J42">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K42">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L42">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N42">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>400</v>
+      </c>
+      <c r="E43">
+        <v>75</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>130</v>
+      </c>
+      <c r="H43">
+        <v>105</v>
+      </c>
+      <c r="I43">
         <v>5</v>
       </c>
-      <c r="D43">
-        <v>180</v>
-      </c>
-      <c r="E43">
-        <v>10</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>100</v>
-      </c>
-      <c r="H43">
+      <c r="J43">
+        <v>15</v>
+      </c>
+      <c r="K43">
+        <v>70</v>
+      </c>
+      <c r="L43">
+        <v>70</v>
+      </c>
+      <c r="M43">
+        <v>53</v>
+      </c>
+      <c r="N43">
         <v>90</v>
       </c>
-      <c r="I43">
-        <v>20</v>
-      </c>
-      <c r="J43">
-        <v>100</v>
-      </c>
-      <c r="K43">
-        <v>30</v>
-      </c>
-      <c r="L43">
-        <v>50</v>
-      </c>
-      <c r="M43">
-        <v>100</v>
-      </c>
-      <c r="N43">
-        <v>10</v>
-      </c>
       <c r="O43">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="C44">
-        <v>350</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I44">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J44">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K44">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L44">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M44">
         <v>100</v>
       </c>
       <c r="N44">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="O44">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45">
-        <v>3900</v>
+        <v>1300</v>
       </c>
       <c r="C45">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="D45">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>200</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <v>90</v>
+      </c>
+      <c r="K45">
+        <v>20</v>
+      </c>
+      <c r="L45">
         <v>80</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-      <c r="G45">
-        <v>150</v>
-      </c>
-      <c r="H45">
-        <v>90</v>
-      </c>
-      <c r="I45">
-        <v>5</v>
-      </c>
-      <c r="J45">
-        <v>15</v>
-      </c>
-      <c r="K45">
-        <v>90</v>
-      </c>
-      <c r="L45">
-        <v>70</v>
       </c>
       <c r="M45">
         <v>100</v>
@@ -2714,19 +2723,19 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="D46">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E46">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -2738,22 +2747,22 @@
         <v>90</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J46">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K46">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M46">
         <v>100</v>
       </c>
       <c r="N46">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O46">
         <v>100</v>
@@ -2761,46 +2770,46 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>1000</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>265</v>
+      </c>
+      <c r="E47">
         <v>60</v>
       </c>
-      <c r="B47">
-        <v>2100</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>70</v>
-      </c>
       <c r="F47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H47">
+        <v>90</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47">
         <v>50</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>30</v>
-      </c>
-      <c r="K47">
-        <v>30</v>
-      </c>
       <c r="L47">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M47">
         <v>100</v>
       </c>
       <c r="N47">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="O47">
         <v>100</v>
@@ -2808,16 +2817,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -2829,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2855,19 +2864,19 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E49">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2876,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2902,10 +2911,10 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2914,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2923,25 +2932,25 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L50">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="M50">
         <v>100</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O50">
         <v>100</v>
@@ -2949,19 +2958,19 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51">
-        <v>4000</v>
+        <v>180</v>
       </c>
       <c r="C51">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2970,25 +2979,25 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M51">
         <v>100</v>
       </c>
       <c r="N51">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O51">
         <v>100</v>
@@ -2996,46 +3005,46 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="D52">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>120</v>
       </c>
       <c r="F52">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="I52">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J52">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M52">
         <v>100</v>
       </c>
       <c r="N52">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O52">
         <v>100</v>
@@ -3043,16 +3052,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="C53">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E53">
         <v>120</v>
@@ -3070,21 +3079,68 @@
         <v>20</v>
       </c>
       <c r="J53">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L53">
+        <v>20</v>
+      </c>
+      <c r="M53">
+        <v>100</v>
+      </c>
+      <c r="N53">
+        <v>20</v>
+      </c>
+      <c r="O53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>3500</v>
+      </c>
+      <c r="C54">
+        <v>2400</v>
+      </c>
+      <c r="D54">
+        <v>650</v>
+      </c>
+      <c r="E54">
+        <v>120</v>
+      </c>
+      <c r="F54">
+        <v>300</v>
+      </c>
+      <c r="G54">
+        <v>170</v>
+      </c>
+      <c r="H54">
+        <v>150</v>
+      </c>
+      <c r="I54">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>20</v>
+      </c>
+      <c r="L54">
         <v>70</v>
       </c>
-      <c r="M53">
-        <v>100</v>
-      </c>
-      <c r="N53">
-        <v>30</v>
-      </c>
-      <c r="O53">
+      <c r="M54">
+        <v>100</v>
+      </c>
+      <c r="N54">
+        <v>30</v>
+      </c>
+      <c r="O54">
         <v>100</v>
       </c>
     </row>
@@ -3094,15 +3150,7801 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0439335-971E-8345-A566-EA9ADDC7D6B2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20B551D-247F-BB44-9861-BF5808520D4A}">
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>353</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>345</v>
+      </c>
+      <c r="E2">
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>130</v>
+      </c>
+      <c r="H2">
+        <v>114</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>70</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>50</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>485</v>
+      </c>
+      <c r="C3">
+        <v>184</v>
+      </c>
+      <c r="D3">
+        <v>443</v>
+      </c>
+      <c r="E3">
+        <v>97</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>160</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>70</v>
+      </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+      <c r="O3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>370</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>368</v>
+      </c>
+      <c r="E4">
+        <v>111</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <v>91</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>392</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>379</v>
+      </c>
+      <c r="E5">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>150</v>
+      </c>
+      <c r="H5">
+        <v>97</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>35</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>386</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>362</v>
+      </c>
+      <c r="E6">
+        <v>83</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>120</v>
+      </c>
+      <c r="H6">
+        <v>91</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>75</v>
+      </c>
+      <c r="L6">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>414</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>368</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>125</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>75</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>441</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>374</v>
+      </c>
+      <c r="E8">
+        <v>124</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>135</v>
+      </c>
+      <c r="H8">
+        <v>108</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>75</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>75</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>311</v>
+      </c>
+      <c r="E9">
+        <v>83</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>135</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>650</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>83</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>60</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>518</v>
+      </c>
+      <c r="C11">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>431</v>
+      </c>
+      <c r="E11">
+        <v>124</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>140</v>
+      </c>
+      <c r="H11">
+        <v>47</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>48</v>
+      </c>
+      <c r="N11">
+        <v>50</v>
+      </c>
+      <c r="O11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>595</v>
+      </c>
+      <c r="C12">
+        <v>184</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>83</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>160</v>
+      </c>
+      <c r="H12">
+        <v>154</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>80</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>58</v>
+      </c>
+      <c r="N12">
+        <v>50</v>
+      </c>
+      <c r="O12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>414</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>408</v>
+      </c>
+      <c r="E13">
+        <v>152</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>153</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>80</v>
+      </c>
+      <c r="L13">
+        <v>70</v>
+      </c>
+      <c r="M13">
+        <v>35</v>
+      </c>
+      <c r="N13">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>430</v>
+      </c>
+      <c r="C14">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>420</v>
+      </c>
+      <c r="E14">
+        <v>152</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>160</v>
+      </c>
+      <c r="H14">
+        <v>126</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>70</v>
+      </c>
+      <c r="L14">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>35</v>
+      </c>
+      <c r="N14">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>463</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>431</v>
+      </c>
+      <c r="E15">
+        <v>152</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>170</v>
+      </c>
+      <c r="H15">
+        <v>131</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>70</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <v>397</v>
+      </c>
+      <c r="C16">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>362</v>
+      </c>
+      <c r="E16">
+        <v>124</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>155</v>
+      </c>
+      <c r="H16">
+        <v>103</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>80</v>
+      </c>
+      <c r="M16">
+        <v>35</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>397</v>
+      </c>
+      <c r="C17">
+        <v>259</v>
+      </c>
+      <c r="D17">
+        <v>535</v>
+      </c>
+      <c r="E17">
+        <v>131</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>180</v>
+      </c>
+      <c r="H17">
+        <v>137</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>80</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>55</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <v>540</v>
+      </c>
+      <c r="C18">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>437</v>
+      </c>
+      <c r="E18">
+        <v>152</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>160</v>
+      </c>
+      <c r="H18">
+        <v>65</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>85</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>53</v>
+      </c>
+      <c r="N18">
+        <v>75</v>
+      </c>
+      <c r="O18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1">
+        <v>980</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>454</v>
+      </c>
+      <c r="E19">
+        <v>773</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>180</v>
+      </c>
+      <c r="H19">
+        <v>103</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>45</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1">
+        <v>650</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>443</v>
+      </c>
+      <c r="E20">
+        <v>104</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>150</v>
+      </c>
+      <c r="H20">
+        <v>126</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>80</v>
+      </c>
+      <c r="M20">
+        <v>45</v>
+      </c>
+      <c r="N20">
+        <v>30</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <v>650</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>477</v>
+      </c>
+      <c r="E21">
+        <v>104</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>150</v>
+      </c>
+      <c r="H21">
+        <v>126</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>80</v>
+      </c>
+      <c r="L21">
+        <v>80</v>
+      </c>
+      <c r="M21">
+        <v>45</v>
+      </c>
+      <c r="N21">
+        <v>30</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>474</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>443</v>
+      </c>
+      <c r="E22">
+        <v>138</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>150</v>
+      </c>
+      <c r="H22">
+        <v>120</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>80</v>
+      </c>
+      <c r="L22">
+        <v>80</v>
+      </c>
+      <c r="M22">
+        <v>53</v>
+      </c>
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1">
+        <v>430</v>
+      </c>
+      <c r="C23">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>408</v>
+      </c>
+      <c r="E23">
+        <v>124</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>140</v>
+      </c>
+      <c r="H23">
+        <v>120</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>80</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1">
+        <v>485</v>
+      </c>
+      <c r="C24">
+        <v>259</v>
+      </c>
+      <c r="D24">
+        <v>615</v>
+      </c>
+      <c r="E24">
+        <v>111</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>210</v>
+      </c>
+      <c r="H24">
+        <v>137</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>55</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
+        <v>463</v>
+      </c>
+      <c r="C25">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>529</v>
+      </c>
+      <c r="E25">
+        <v>134</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>170</v>
+      </c>
+      <c r="H25">
+        <v>126</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>80</v>
+      </c>
+      <c r="K25">
+        <v>80</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>45</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1">
+        <v>485</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>523</v>
+      </c>
+      <c r="E26">
+        <v>138</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>160</v>
+      </c>
+      <c r="H26">
+        <v>128</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>80</v>
+      </c>
+      <c r="K26">
+        <v>80</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <v>300</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>160</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>120</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <v>405</v>
+      </c>
+      <c r="C28">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>454</v>
+      </c>
+      <c r="E28">
+        <v>124</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>170</v>
+      </c>
+      <c r="H28">
+        <v>131</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>90</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>40</v>
+      </c>
+      <c r="N28">
+        <v>70</v>
+      </c>
+      <c r="O28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1">
+        <v>405</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>454</v>
+      </c>
+      <c r="E29">
+        <v>124</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>170</v>
+      </c>
+      <c r="H29">
+        <v>131</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>90</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>40</v>
+      </c>
+      <c r="N29">
+        <v>70</v>
+      </c>
+      <c r="O29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1">
+        <v>540</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>465</v>
+      </c>
+      <c r="E30">
+        <v>124</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>180</v>
+      </c>
+      <c r="H30">
+        <v>137</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>30</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>90</v>
+      </c>
+      <c r="M30">
+        <v>45</v>
+      </c>
+      <c r="N30">
+        <v>70</v>
+      </c>
+      <c r="O30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1">
+        <v>562</v>
+      </c>
+      <c r="C31">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <v>512</v>
+      </c>
+      <c r="E31">
+        <v>152</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>160</v>
+      </c>
+      <c r="H31">
+        <v>137</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>80</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>48</v>
+      </c>
+      <c r="N31">
+        <v>70</v>
+      </c>
+      <c r="O31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1">
+        <v>518</v>
+      </c>
+      <c r="C32">
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <v>488</v>
+      </c>
+      <c r="E32">
+        <v>152</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>180</v>
+      </c>
+      <c r="H32">
+        <v>150</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="L32">
+        <v>90</v>
+      </c>
+      <c r="M32">
+        <v>48</v>
+      </c>
+      <c r="N32">
+        <v>90</v>
+      </c>
+      <c r="O32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1">
+        <v>771</v>
+      </c>
+      <c r="C33">
+        <v>67</v>
+      </c>
+      <c r="D33">
+        <v>592</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>160</v>
+      </c>
+      <c r="H33">
+        <v>70</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <v>75</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <v>58</v>
+      </c>
+      <c r="N33">
+        <v>75</v>
+      </c>
+      <c r="O33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1">
+        <v>617</v>
+      </c>
+      <c r="C34">
+        <v>67</v>
+      </c>
+      <c r="D34">
+        <v>558</v>
+      </c>
+      <c r="E34">
+        <v>180</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>180</v>
+      </c>
+      <c r="H34">
+        <v>135</v>
+      </c>
+      <c r="I34">
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>85</v>
+      </c>
+      <c r="L34">
+        <v>70</v>
+      </c>
+      <c r="M34">
+        <v>50</v>
+      </c>
+      <c r="N34">
+        <v>30</v>
+      </c>
+      <c r="O34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1">
+        <v>650</v>
+      </c>
+      <c r="C35">
+        <v>70</v>
+      </c>
+      <c r="D35">
+        <v>575</v>
+      </c>
+      <c r="E35">
+        <v>187</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>193</v>
+      </c>
+      <c r="H35">
+        <v>146</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+      <c r="J35">
+        <v>70</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>85</v>
+      </c>
+      <c r="M35">
+        <v>50</v>
+      </c>
+      <c r="N35">
+        <v>50</v>
+      </c>
+      <c r="O35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1">
+        <v>683</v>
+      </c>
+      <c r="C36">
+        <v>73</v>
+      </c>
+      <c r="D36">
+        <v>592</v>
+      </c>
+      <c r="E36">
+        <v>193</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>205</v>
+      </c>
+      <c r="H36">
+        <v>159</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>85</v>
+      </c>
+      <c r="K36">
+        <v>70</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>55</v>
+      </c>
+      <c r="N36">
+        <v>75</v>
+      </c>
+      <c r="O36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1">
+        <v>485</v>
+      </c>
+      <c r="C37">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>523</v>
+      </c>
+      <c r="E37">
+        <v>152</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>114</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>60</v>
+      </c>
+      <c r="L37">
+        <v>90</v>
+      </c>
+      <c r="M37">
+        <v>45</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1">
+        <v>540</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <v>627</v>
+      </c>
+      <c r="E38">
+        <v>152</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>170</v>
+      </c>
+      <c r="H38">
+        <v>137</v>
+      </c>
+      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>25</v>
+      </c>
+      <c r="L38">
+        <v>95</v>
+      </c>
+      <c r="M38">
+        <v>65</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="1">
+        <v>760</v>
+      </c>
+      <c r="C39">
+        <v>72</v>
+      </c>
+      <c r="D39">
+        <v>627</v>
+      </c>
+      <c r="E39">
+        <v>193</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>195</v>
+      </c>
+      <c r="H39">
+        <v>166</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>90</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>90</v>
+      </c>
+      <c r="M39">
+        <v>55</v>
+      </c>
+      <c r="N39">
+        <v>70</v>
+      </c>
+      <c r="O39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="1">
+        <v>650</v>
+      </c>
+      <c r="C40">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>569</v>
+      </c>
+      <c r="E40">
+        <v>118</v>
+      </c>
+      <c r="F40">
+        <v>200</v>
+      </c>
+      <c r="G40">
+        <v>180</v>
+      </c>
+      <c r="H40">
+        <v>126</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>90</v>
+      </c>
+      <c r="L40">
+        <v>90</v>
+      </c>
+      <c r="M40">
+        <v>63</v>
+      </c>
+      <c r="N40">
+        <v>90</v>
+      </c>
+      <c r="O40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1">
+        <v>870</v>
+      </c>
+      <c r="C41">
+        <v>76</v>
+      </c>
+      <c r="D41">
+        <v>675</v>
+      </c>
+      <c r="E41">
+        <v>221</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>160</v>
+      </c>
+      <c r="H41">
+        <v>94</v>
+      </c>
+      <c r="I41">
+        <v>16</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>75</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>73</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1">
+        <v>562</v>
+      </c>
+      <c r="C42">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>512</v>
+      </c>
+      <c r="E42">
+        <v>193</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>210</v>
+      </c>
+      <c r="H42">
+        <v>160</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <v>50</v>
+      </c>
+      <c r="L42">
+        <v>50</v>
+      </c>
+      <c r="M42">
+        <v>22</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1">
+        <v>815</v>
+      </c>
+      <c r="C43">
+        <v>79</v>
+      </c>
+      <c r="D43">
+        <v>673</v>
+      </c>
+      <c r="E43">
+        <v>187</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>190</v>
+      </c>
+      <c r="H43">
+        <v>143</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>75</v>
+      </c>
+      <c r="L43">
+        <v>75</v>
+      </c>
+      <c r="M43">
+        <v>73</v>
+      </c>
+      <c r="N43">
+        <v>100</v>
+      </c>
+      <c r="O43">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1">
+        <v>120</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>170</v>
+      </c>
+      <c r="E44">
+        <v>80</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>150</v>
+      </c>
+      <c r="H44">
+        <v>90</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>45</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44">
+        <v>100</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C45">
+        <v>2000</v>
+      </c>
+      <c r="D45">
+        <v>430</v>
+      </c>
+      <c r="E45">
+        <v>80</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>260</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>16</v>
+      </c>
+      <c r="J45">
+        <v>90</v>
+      </c>
+      <c r="K45">
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <v>80</v>
+      </c>
+      <c r="M45">
+        <v>100</v>
+      </c>
+      <c r="N45">
+        <v>60</v>
+      </c>
+      <c r="O45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4610</v>
+      </c>
+      <c r="C46">
+        <v>2500</v>
+      </c>
+      <c r="D46">
+        <v>805</v>
+      </c>
+      <c r="E46">
+        <v>180</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>210</v>
+      </c>
+      <c r="H46">
+        <v>120</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>80</v>
+      </c>
+      <c r="L46">
+        <v>60</v>
+      </c>
+      <c r="M46">
+        <v>100</v>
+      </c>
+      <c r="N46">
+        <v>80</v>
+      </c>
+      <c r="O46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1550</v>
+      </c>
+      <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <v>770</v>
+      </c>
+      <c r="E47">
+        <v>152</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>210</v>
+      </c>
+      <c r="H47">
+        <v>120</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <v>50</v>
+      </c>
+      <c r="L47">
+        <v>30</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="N47">
+        <v>80</v>
+      </c>
+      <c r="O47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3200</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>140</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>80</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>30</v>
+      </c>
+      <c r="K48">
+        <v>30</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48">
+        <v>30</v>
+      </c>
+      <c r="O48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1">
+        <v>500</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>70</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>35</v>
+      </c>
+      <c r="K49">
+        <v>35</v>
+      </c>
+      <c r="L49">
+        <v>15</v>
+      </c>
+      <c r="M49">
+        <v>100</v>
+      </c>
+      <c r="N49">
+        <v>35</v>
+      </c>
+      <c r="O49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1">
+        <v>220</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>55</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>30</v>
+      </c>
+      <c r="K50">
+        <v>30</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>100</v>
+      </c>
+      <c r="N50">
+        <v>30</v>
+      </c>
+      <c r="O50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1">
+        <v>350</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>120</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+      <c r="M51">
+        <v>100</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C52">
+        <v>3000</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>200</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>140</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>60</v>
+      </c>
+      <c r="K52">
+        <v>45</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>100</v>
+      </c>
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>900</v>
+      </c>
+      <c r="E53">
+        <v>230</v>
+      </c>
+      <c r="F53">
+        <v>300</v>
+      </c>
+      <c r="G53">
+        <v>220</v>
+      </c>
+      <c r="H53">
+        <v>170</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>70</v>
+      </c>
+      <c r="K53">
+        <v>100</v>
+      </c>
+      <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>100</v>
+      </c>
+      <c r="N53">
+        <v>50</v>
+      </c>
+      <c r="O53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1000</v>
+      </c>
+      <c r="E54">
+        <v>230</v>
+      </c>
+      <c r="F54">
+        <v>300</v>
+      </c>
+      <c r="G54">
+        <v>230</v>
+      </c>
+      <c r="H54">
+        <v>170</v>
+      </c>
+      <c r="I54">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>30</v>
+      </c>
+      <c r="L54">
+        <v>70</v>
+      </c>
+      <c r="M54">
+        <v>100</v>
+      </c>
+      <c r="N54">
+        <v>60</v>
+      </c>
+      <c r="O54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C55">
+        <v>6000</v>
+      </c>
+      <c r="D55">
+        <v>1100</v>
+      </c>
+      <c r="E55">
+        <v>230</v>
+      </c>
+      <c r="F55">
+        <v>300</v>
+      </c>
+      <c r="G55">
+        <v>230</v>
+      </c>
+      <c r="H55">
+        <v>170</v>
+      </c>
+      <c r="I55">
+        <v>30</v>
+      </c>
+      <c r="J55">
+        <v>50</v>
+      </c>
+      <c r="K55">
+        <v>100</v>
+      </c>
+      <c r="L55">
+        <v>80</v>
+      </c>
+      <c r="M55">
+        <v>100</v>
+      </c>
+      <c r="N55">
+        <v>70</v>
+      </c>
+      <c r="O55">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1951896B-C378-8D43-85BA-BA5F38BE9475}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>688</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>590</v>
+      </c>
+      <c r="E2">
+        <v>211</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>205</v>
+      </c>
+      <c r="H2">
+        <v>171</v>
+      </c>
+      <c r="I2">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>70</v>
+      </c>
+      <c r="M2">
+        <v>45</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>838</v>
+      </c>
+      <c r="C3">
+        <v>280</v>
+      </c>
+      <c r="D3">
+        <v>707</v>
+      </c>
+      <c r="E3">
+        <v>211</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>235</v>
+      </c>
+      <c r="H3">
+        <v>55</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>70</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>70</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>706</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>636</v>
+      </c>
+      <c r="E4">
+        <v>228</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>225</v>
+      </c>
+      <c r="H4">
+        <v>140</v>
+      </c>
+      <c r="I4">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>90</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>45</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>731</v>
+      </c>
+      <c r="C5">
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>699</v>
+      </c>
+      <c r="E5">
+        <v>237</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>225</v>
+      </c>
+      <c r="H5">
+        <v>148</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>725</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>610</v>
+      </c>
+      <c r="E6">
+        <v>193</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>195</v>
+      </c>
+      <c r="H6">
+        <v>140</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>85</v>
+      </c>
+      <c r="L6">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>788</v>
+      </c>
+      <c r="C7">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <v>663</v>
+      </c>
+      <c r="E7">
+        <v>246</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>210</v>
+      </c>
+      <c r="H7">
+        <v>163</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>85</v>
+      </c>
+      <c r="K7">
+        <v>65</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>45</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>788</v>
+      </c>
+      <c r="C8">
+        <v>94</v>
+      </c>
+      <c r="D8">
+        <v>663</v>
+      </c>
+      <c r="E8">
+        <v>246</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>210</v>
+      </c>
+      <c r="H8">
+        <v>163</v>
+      </c>
+      <c r="I8">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>85</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>70</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>480</v>
+      </c>
+      <c r="C9">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>550</v>
+      </c>
+      <c r="E9">
+        <v>193</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>210</v>
+      </c>
+      <c r="H9">
+        <v>78</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>45</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1025</v>
+      </c>
+      <c r="C10">
+        <v>92</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>193</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>135</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>70</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>875</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>725</v>
+      </c>
+      <c r="E11">
+        <v>246</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>215</v>
+      </c>
+      <c r="H11">
+        <v>81</v>
+      </c>
+      <c r="I11">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>90</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>75</v>
+      </c>
+      <c r="M11">
+        <v>63</v>
+      </c>
+      <c r="N11">
+        <v>60</v>
+      </c>
+      <c r="O11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>962</v>
+      </c>
+      <c r="C12">
+        <v>280</v>
+      </c>
+      <c r="D12">
+        <v>800</v>
+      </c>
+      <c r="E12">
+        <v>193</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>235</v>
+      </c>
+      <c r="H12">
+        <v>225</v>
+      </c>
+      <c r="I12">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>75</v>
+      </c>
+      <c r="M12">
+        <v>73</v>
+      </c>
+      <c r="N12">
+        <v>60</v>
+      </c>
+      <c r="O12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>757</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>690</v>
+      </c>
+      <c r="E13">
+        <v>281</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>228</v>
+      </c>
+      <c r="H13">
+        <v>179</v>
+      </c>
+      <c r="I13">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>70</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>30</v>
+      </c>
+      <c r="O13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>775</v>
+      </c>
+      <c r="C14">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>713</v>
+      </c>
+      <c r="E14">
+        <v>281</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>235</v>
+      </c>
+      <c r="H14">
+        <v>187</v>
+      </c>
+      <c r="I14">
+        <v>28</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>75</v>
+      </c>
+      <c r="L14">
+        <v>90</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>813</v>
+      </c>
+      <c r="C15">
+        <v>108</v>
+      </c>
+      <c r="D15">
+        <v>735</v>
+      </c>
+      <c r="E15">
+        <v>281</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>245</v>
+      </c>
+      <c r="H15">
+        <v>194</v>
+      </c>
+      <c r="I15">
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <v>90</v>
+      </c>
+      <c r="K15">
+        <v>80</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>55</v>
+      </c>
+      <c r="N15">
+        <v>30</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>738</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>650</v>
+      </c>
+      <c r="E16">
+        <v>246</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>230</v>
+      </c>
+      <c r="H16">
+        <v>156</v>
+      </c>
+      <c r="I16">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>90</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>738</v>
+      </c>
+      <c r="C17">
+        <v>380</v>
+      </c>
+      <c r="D17">
+        <v>868</v>
+      </c>
+      <c r="E17">
+        <v>254</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>255</v>
+      </c>
+      <c r="H17">
+        <v>202</v>
+      </c>
+      <c r="I17">
+        <v>40</v>
+      </c>
+      <c r="J17">
+        <v>90</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>70</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>900</v>
+      </c>
+      <c r="C18">
+        <v>110</v>
+      </c>
+      <c r="D18">
+        <v>721</v>
+      </c>
+      <c r="E18">
+        <v>281</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>235</v>
+      </c>
+      <c r="H18">
+        <v>104</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>90</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>58</v>
+      </c>
+      <c r="N18">
+        <v>75</v>
+      </c>
+      <c r="O18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1400</v>
+      </c>
+      <c r="C19">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>720</v>
+      </c>
+      <c r="E19">
+        <v>1068</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>255</v>
+      </c>
+      <c r="H19">
+        <v>156</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>60</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>1025</v>
+      </c>
+      <c r="C20">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>718</v>
+      </c>
+      <c r="E20">
+        <v>219</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>225</v>
+      </c>
+      <c r="H20">
+        <v>187</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>90</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>90</v>
+      </c>
+      <c r="M20">
+        <v>60</v>
+      </c>
+      <c r="N20">
+        <v>30</v>
+      </c>
+      <c r="O20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>1025</v>
+      </c>
+      <c r="C21">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <v>805</v>
+      </c>
+      <c r="E21">
+        <v>219</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>225</v>
+      </c>
+      <c r="H21">
+        <v>187</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>90</v>
+      </c>
+      <c r="M21">
+        <v>60</v>
+      </c>
+      <c r="N21">
+        <v>30</v>
+      </c>
+      <c r="O21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>825</v>
+      </c>
+      <c r="C22">
+        <v>114</v>
+      </c>
+      <c r="D22">
+        <v>738</v>
+      </c>
+      <c r="E22">
+        <v>263</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>225</v>
+      </c>
+      <c r="H22">
+        <v>179</v>
+      </c>
+      <c r="I22">
+        <v>35</v>
+      </c>
+      <c r="J22">
+        <v>15</v>
+      </c>
+      <c r="K22">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>85</v>
+      </c>
+      <c r="M22">
+        <v>68</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>775</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>700</v>
+      </c>
+      <c r="E23">
+        <v>246</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>215</v>
+      </c>
+      <c r="H23">
+        <v>179</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>55</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>725</v>
+      </c>
+      <c r="C24">
+        <v>380</v>
+      </c>
+      <c r="D24">
+        <v>900</v>
+      </c>
+      <c r="E24">
+        <v>228</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>285</v>
+      </c>
+      <c r="H24">
+        <v>202</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <v>90</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>70</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>813</v>
+      </c>
+      <c r="C25">
+        <v>116</v>
+      </c>
+      <c r="D25">
+        <v>812</v>
+      </c>
+      <c r="E25">
+        <v>258</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>245</v>
+      </c>
+      <c r="H25">
+        <v>187</v>
+      </c>
+      <c r="I25">
+        <v>28</v>
+      </c>
+      <c r="J25">
+        <v>80</v>
+      </c>
+      <c r="K25">
+        <v>80</v>
+      </c>
+      <c r="L25">
+        <v>35</v>
+      </c>
+      <c r="M25">
+        <v>60</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>838</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>785</v>
+      </c>
+      <c r="E26">
+        <v>263</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>235</v>
+      </c>
+      <c r="H26">
+        <v>187</v>
+      </c>
+      <c r="I26">
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <v>80</v>
+      </c>
+      <c r="K26">
+        <v>80</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <v>300</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>160</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>120</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <v>825</v>
+      </c>
+      <c r="C28">
+        <v>112</v>
+      </c>
+      <c r="D28">
+        <v>750</v>
+      </c>
+      <c r="E28">
+        <v>246</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>245</v>
+      </c>
+      <c r="H28">
+        <v>194</v>
+      </c>
+      <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>90</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>55</v>
+      </c>
+      <c r="N28">
+        <v>75</v>
+      </c>
+      <c r="O28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1">
+        <v>825</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>750</v>
+      </c>
+      <c r="E29">
+        <v>246</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>245</v>
+      </c>
+      <c r="H29">
+        <v>194</v>
+      </c>
+      <c r="I29">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>90</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>55</v>
+      </c>
+      <c r="N29">
+        <v>75</v>
+      </c>
+      <c r="O29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1">
+        <v>900</v>
+      </c>
+      <c r="C30">
+        <v>114</v>
+      </c>
+      <c r="D30">
+        <v>763</v>
+      </c>
+      <c r="E30">
+        <v>246</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>255</v>
+      </c>
+      <c r="H30">
+        <v>202</v>
+      </c>
+      <c r="I30">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <v>90</v>
+      </c>
+      <c r="M30">
+        <v>60</v>
+      </c>
+      <c r="N30">
+        <v>75</v>
+      </c>
+      <c r="O30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1">
+        <v>738</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+      <c r="D31">
+        <v>801</v>
+      </c>
+      <c r="E31">
+        <v>254</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>255</v>
+      </c>
+      <c r="H31">
+        <v>202</v>
+      </c>
+      <c r="I31">
+        <v>35</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>60</v>
+      </c>
+      <c r="M31">
+        <v>63</v>
+      </c>
+      <c r="N31">
+        <v>75</v>
+      </c>
+      <c r="O31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C32">
+        <v>120</v>
+      </c>
+      <c r="D32">
+        <v>787</v>
+      </c>
+      <c r="E32">
+        <v>281</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>255</v>
+      </c>
+      <c r="H32">
+        <v>219</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>75</v>
+      </c>
+      <c r="L32">
+        <v>90</v>
+      </c>
+      <c r="M32">
+        <v>63</v>
+      </c>
+      <c r="N32">
+        <v>90</v>
+      </c>
+      <c r="O32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C33">
+        <v>124</v>
+      </c>
+      <c r="D33">
+        <v>950</v>
+      </c>
+      <c r="E33">
+        <v>342</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>235</v>
+      </c>
+      <c r="H33">
+        <v>112</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>75</v>
+      </c>
+      <c r="K33">
+        <v>15</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <v>73</v>
+      </c>
+      <c r="N33">
+        <v>75</v>
+      </c>
+      <c r="O33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1">
+        <v>988</v>
+      </c>
+      <c r="C34">
+        <v>124</v>
+      </c>
+      <c r="D34">
+        <v>823</v>
+      </c>
+      <c r="E34">
+        <v>316</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>255</v>
+      </c>
+      <c r="H34">
+        <v>197</v>
+      </c>
+      <c r="I34">
+        <v>28</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>95</v>
+      </c>
+      <c r="L34">
+        <v>70</v>
+      </c>
+      <c r="M34">
+        <v>65</v>
+      </c>
+      <c r="N34">
+        <v>30</v>
+      </c>
+      <c r="O34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1025</v>
+      </c>
+      <c r="C35">
+        <v>128</v>
+      </c>
+      <c r="D35">
+        <v>851</v>
+      </c>
+      <c r="E35">
+        <v>324</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>268</v>
+      </c>
+      <c r="H35">
+        <v>214</v>
+      </c>
+      <c r="I35">
+        <v>28</v>
+      </c>
+      <c r="J35">
+        <v>75</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>95</v>
+      </c>
+      <c r="M35">
+        <v>68</v>
+      </c>
+      <c r="N35">
+        <v>45</v>
+      </c>
+      <c r="O35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1063</v>
+      </c>
+      <c r="C36">
+        <v>132</v>
+      </c>
+      <c r="D36">
+        <v>880</v>
+      </c>
+      <c r="E36">
+        <v>333</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>280</v>
+      </c>
+      <c r="H36">
+        <v>231</v>
+      </c>
+      <c r="I36">
+        <v>35</v>
+      </c>
+      <c r="J36">
+        <v>95</v>
+      </c>
+      <c r="K36">
+        <v>80</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>71</v>
+      </c>
+      <c r="N36">
+        <v>60</v>
+      </c>
+      <c r="O36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1">
+        <v>838</v>
+      </c>
+      <c r="C37">
+        <v>92</v>
+      </c>
+      <c r="D37">
+        <v>775</v>
+      </c>
+      <c r="E37">
+        <v>281</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>150</v>
+      </c>
+      <c r="H37">
+        <v>171</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>75</v>
+      </c>
+      <c r="L37">
+        <v>90</v>
+      </c>
+      <c r="M37">
+        <v>60</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1">
+        <v>900</v>
+      </c>
+      <c r="C38">
+        <v>128</v>
+      </c>
+      <c r="D38">
+        <v>888</v>
+      </c>
+      <c r="E38">
+        <v>281</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>245</v>
+      </c>
+      <c r="H38">
+        <v>202</v>
+      </c>
+      <c r="I38">
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>30</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="M38">
+        <v>80</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1150</v>
+      </c>
+      <c r="C39">
+        <v>130</v>
+      </c>
+      <c r="D39">
+        <v>918</v>
+      </c>
+      <c r="E39">
+        <v>333</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>270</v>
+      </c>
+      <c r="H39">
+        <v>241</v>
+      </c>
+      <c r="I39">
+        <v>30</v>
+      </c>
+      <c r="J39">
+        <v>95</v>
+      </c>
+      <c r="K39">
+        <v>15</v>
+      </c>
+      <c r="L39">
+        <v>95</v>
+      </c>
+      <c r="M39">
+        <v>77</v>
+      </c>
+      <c r="N39">
+        <v>75</v>
+      </c>
+      <c r="O39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1025</v>
+      </c>
+      <c r="C40">
+        <v>128</v>
+      </c>
+      <c r="D40">
+        <v>755</v>
+      </c>
+      <c r="E40">
+        <v>237</v>
+      </c>
+      <c r="F40">
+        <v>300</v>
+      </c>
+      <c r="G40">
+        <v>255</v>
+      </c>
+      <c r="H40">
+        <v>187</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>15</v>
+      </c>
+      <c r="K40">
+        <v>90</v>
+      </c>
+      <c r="L40">
+        <v>90</v>
+      </c>
+      <c r="M40">
+        <v>78</v>
+      </c>
+      <c r="N40">
+        <v>90</v>
+      </c>
+      <c r="O40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1275</v>
+      </c>
+      <c r="C41">
+        <v>136</v>
+      </c>
+      <c r="D41">
+        <v>953</v>
+      </c>
+      <c r="E41">
+        <v>368</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>235</v>
+      </c>
+      <c r="H41">
+        <v>145</v>
+      </c>
+      <c r="I41">
+        <v>28</v>
+      </c>
+      <c r="J41">
+        <v>90</v>
+      </c>
+      <c r="K41">
+        <v>80</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>88</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1">
+        <v>925</v>
+      </c>
+      <c r="C42">
+        <v>120</v>
+      </c>
+      <c r="D42">
+        <v>753</v>
+      </c>
+      <c r="E42">
+        <v>333</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>285</v>
+      </c>
+      <c r="H42">
+        <v>233</v>
+      </c>
+      <c r="I42">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>60</v>
+      </c>
+      <c r="K42">
+        <v>60</v>
+      </c>
+      <c r="L42">
+        <v>60</v>
+      </c>
+      <c r="M42">
+        <v>70</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1213</v>
+      </c>
+      <c r="C43">
+        <v>140</v>
+      </c>
+      <c r="D43">
+        <v>1000</v>
+      </c>
+      <c r="E43">
+        <v>324</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>265</v>
+      </c>
+      <c r="H43">
+        <v>210</v>
+      </c>
+      <c r="I43">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>80</v>
+      </c>
+      <c r="L43">
+        <v>80</v>
+      </c>
+      <c r="M43">
+        <v>88</v>
+      </c>
+      <c r="N43">
+        <v>100</v>
+      </c>
+      <c r="O43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1">
+        <v>180</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>300</v>
+      </c>
+      <c r="E44">
+        <v>80</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>200</v>
+      </c>
+      <c r="H44">
+        <v>90</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>50</v>
+      </c>
+      <c r="K44">
+        <v>30</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44">
+        <v>100</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4200</v>
+      </c>
+      <c r="C45">
+        <v>5000</v>
+      </c>
+      <c r="D45">
+        <v>780</v>
+      </c>
+      <c r="E45">
+        <v>193</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>335</v>
+      </c>
+      <c r="H45">
+        <v>130</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <v>90</v>
+      </c>
+      <c r="K45">
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <v>80</v>
+      </c>
+      <c r="M45">
+        <v>100</v>
+      </c>
+      <c r="N45">
+        <v>60</v>
+      </c>
+      <c r="O45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C46">
+        <v>6300</v>
+      </c>
+      <c r="D46">
+        <v>1300</v>
+      </c>
+      <c r="E46">
+        <v>300</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>270</v>
+      </c>
+      <c r="H46">
+        <v>151</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>80</v>
+      </c>
+      <c r="L46">
+        <v>60</v>
+      </c>
+      <c r="M46">
+        <v>100</v>
+      </c>
+      <c r="N46">
+        <v>80</v>
+      </c>
+      <c r="O46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3680</v>
+      </c>
+      <c r="C47">
+        <v>60</v>
+      </c>
+      <c r="D47">
+        <v>1055</v>
+      </c>
+      <c r="E47">
+        <v>270</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>270</v>
+      </c>
+      <c r="H47">
+        <v>151</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <v>50</v>
+      </c>
+      <c r="L47">
+        <v>30</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="N47">
+        <v>80</v>
+      </c>
+      <c r="O47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5500</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>250</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>30</v>
+      </c>
+      <c r="K48">
+        <v>30</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48">
+        <v>30</v>
+      </c>
+      <c r="O48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1">
+        <v>700</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>250</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>40</v>
+      </c>
+      <c r="K49">
+        <v>40</v>
+      </c>
+      <c r="L49">
+        <v>15</v>
+      </c>
+      <c r="M49">
+        <v>100</v>
+      </c>
+      <c r="N49">
+        <v>40</v>
+      </c>
+      <c r="O49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1">
+        <v>220</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>150</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>85</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>30</v>
+      </c>
+      <c r="K50">
+        <v>30</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>100</v>
+      </c>
+      <c r="N50">
+        <v>30</v>
+      </c>
+      <c r="O50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1">
+        <v>500</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>150</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>150</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+      <c r="M51">
+        <v>100</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7700</v>
+      </c>
+      <c r="C52">
+        <v>7700</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>280</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>170</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>60</v>
+      </c>
+      <c r="K52">
+        <v>45</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>100</v>
+      </c>
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8800</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1600</v>
+      </c>
+      <c r="E53">
+        <v>320</v>
+      </c>
+      <c r="F53">
+        <v>300</v>
+      </c>
+      <c r="G53">
+        <v>240</v>
+      </c>
+      <c r="H53">
+        <v>200</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>70</v>
+      </c>
+      <c r="K53">
+        <v>100</v>
+      </c>
+      <c r="L53">
+        <v>40</v>
+      </c>
+      <c r="M53">
+        <v>100</v>
+      </c>
+      <c r="N53">
+        <v>70</v>
+      </c>
+      <c r="O53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1700</v>
+      </c>
+      <c r="E54">
+        <v>320</v>
+      </c>
+      <c r="F54">
+        <v>300</v>
+      </c>
+      <c r="G54">
+        <v>250</v>
+      </c>
+      <c r="H54">
+        <v>200</v>
+      </c>
+      <c r="I54">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>40</v>
+      </c>
+      <c r="L54">
+        <v>70</v>
+      </c>
+      <c r="M54">
+        <v>100</v>
+      </c>
+      <c r="N54">
+        <v>80</v>
+      </c>
+      <c r="O54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8300</v>
+      </c>
+      <c r="C55">
+        <v>12000</v>
+      </c>
+      <c r="D55">
+        <v>1800</v>
+      </c>
+      <c r="E55">
+        <v>320</v>
+      </c>
+      <c r="F55">
+        <v>300</v>
+      </c>
+      <c r="G55">
+        <v>250</v>
+      </c>
+      <c r="H55">
+        <v>200</v>
+      </c>
+      <c r="I55">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>70</v>
+      </c>
+      <c r="K55">
+        <v>100</v>
+      </c>
+      <c r="L55">
+        <v>90</v>
+      </c>
+      <c r="M55">
+        <v>100</v>
+      </c>
+      <c r="N55">
+        <v>85</v>
+      </c>
+      <c r="O55">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE7FB4F-F942-8742-BE6F-593FE695A786}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1309</v>
+      </c>
+      <c r="C2">
+        <v>256</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>476</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>197</v>
+      </c>
+      <c r="H2">
+        <v>478</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>85</v>
+      </c>
+      <c r="M2">
+        <v>75</v>
+      </c>
+      <c r="N2">
+        <v>50</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1697</v>
+      </c>
+      <c r="C3">
+        <v>640</v>
+      </c>
+      <c r="D3">
+        <v>1800</v>
+      </c>
+      <c r="E3">
+        <v>476</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>240</v>
+      </c>
+      <c r="H3">
+        <v>276</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>85</v>
+      </c>
+      <c r="L3">
+        <v>60</v>
+      </c>
+      <c r="M3">
+        <v>90</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>1533</v>
+      </c>
+      <c r="C4">
+        <v>260</v>
+      </c>
+      <c r="D4">
+        <v>990</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>205</v>
+      </c>
+      <c r="H4">
+        <v>424</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>92</v>
+      </c>
+      <c r="L4">
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <v>85</v>
+      </c>
+      <c r="N4">
+        <v>70</v>
+      </c>
+      <c r="O4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1533</v>
+      </c>
+      <c r="C5">
+        <v>268</v>
+      </c>
+      <c r="D5">
+        <v>1280</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>208</v>
+      </c>
+      <c r="H5">
+        <v>424</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>95</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>90</v>
+      </c>
+      <c r="N5">
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1556</v>
+      </c>
+      <c r="C6">
+        <v>260</v>
+      </c>
+      <c r="D6">
+        <v>1050</v>
+      </c>
+      <c r="E6">
+        <v>451</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>202</v>
+      </c>
+      <c r="H6">
+        <v>424</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>70</v>
+      </c>
+      <c r="M6">
+        <v>70</v>
+      </c>
+      <c r="N6">
+        <v>65</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>1700</v>
+      </c>
+      <c r="C7">
+        <v>264</v>
+      </c>
+      <c r="D7">
+        <v>1150</v>
+      </c>
+      <c r="E7">
+        <v>463</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>206</v>
+      </c>
+      <c r="H7">
+        <v>446</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>65</v>
+      </c>
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>70</v>
+      </c>
+      <c r="N7">
+        <v>65</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1534</v>
+      </c>
+      <c r="C8">
+        <v>268</v>
+      </c>
+      <c r="D8">
+        <v>1250</v>
+      </c>
+      <c r="E8">
+        <v>525</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>310</v>
+      </c>
+      <c r="H8">
+        <v>465</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>70</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+      <c r="N8">
+        <v>65</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>950</v>
+      </c>
+      <c r="C9">
+        <v>140</v>
+      </c>
+      <c r="D9">
+        <v>800</v>
+      </c>
+      <c r="E9">
+        <v>451</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>230</v>
+      </c>
+      <c r="H9">
+        <v>316</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <v>70</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1931</v>
+      </c>
+      <c r="C10">
+        <v>264</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>451</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>210</v>
+      </c>
+      <c r="H10">
+        <v>262</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10">
+        <v>75</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>75</v>
+      </c>
+      <c r="N10">
+        <v>50</v>
+      </c>
+      <c r="O10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>1922</v>
+      </c>
+      <c r="C11">
+        <v>280</v>
+      </c>
+      <c r="D11">
+        <v>1450</v>
+      </c>
+      <c r="E11">
+        <v>525</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>235</v>
+      </c>
+      <c r="H11">
+        <v>321</v>
+      </c>
+      <c r="I11">
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>90</v>
+      </c>
+      <c r="K11">
+        <v>90</v>
+      </c>
+      <c r="L11">
+        <v>75</v>
+      </c>
+      <c r="M11">
+        <v>98</v>
+      </c>
+      <c r="N11">
+        <v>25</v>
+      </c>
+      <c r="O11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>4500</v>
+      </c>
+      <c r="C12">
+        <v>640</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>451</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>290</v>
+      </c>
+      <c r="H12">
+        <v>573</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+      <c r="J12">
+        <v>90</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>90</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>50</v>
+      </c>
+      <c r="O12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>1596</v>
+      </c>
+      <c r="C13">
+        <v>280</v>
+      </c>
+      <c r="D13">
+        <v>1300</v>
+      </c>
+      <c r="E13">
+        <v>574</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>233</v>
+      </c>
+      <c r="H13">
+        <v>492</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>75</v>
+      </c>
+      <c r="M13">
+        <v>80</v>
+      </c>
+      <c r="N13">
+        <v>70</v>
+      </c>
+      <c r="O13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1619</v>
+      </c>
+      <c r="C14">
+        <v>288</v>
+      </c>
+      <c r="D14">
+        <v>1370</v>
+      </c>
+      <c r="E14">
+        <v>574</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>236</v>
+      </c>
+      <c r="H14">
+        <v>505</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <v>75</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>75</v>
+      </c>
+      <c r="N14">
+        <v>70</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>1666</v>
+      </c>
+      <c r="C15">
+        <v>296</v>
+      </c>
+      <c r="D15">
+        <v>1420</v>
+      </c>
+      <c r="E15">
+        <v>574</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>342</v>
+      </c>
+      <c r="H15">
+        <v>519</v>
+      </c>
+      <c r="I15">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>75</v>
+      </c>
+      <c r="L15">
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <v>75</v>
+      </c>
+      <c r="N15">
+        <v>70</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>1372</v>
+      </c>
+      <c r="C16">
+        <v>280</v>
+      </c>
+      <c r="D16">
+        <v>1250</v>
+      </c>
+      <c r="E16">
+        <v>525</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>253</v>
+      </c>
+      <c r="H16">
+        <v>451</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>95</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>90</v>
+      </c>
+      <c r="N16">
+        <v>75</v>
+      </c>
+      <c r="O16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>2572</v>
+      </c>
+      <c r="C17">
+        <v>840</v>
+      </c>
+      <c r="D17">
+        <v>1950</v>
+      </c>
+      <c r="E17">
+        <v>537</v>
+      </c>
+      <c r="F17">
+        <v>1300</v>
+      </c>
+      <c r="G17">
+        <v>330</v>
+      </c>
+      <c r="H17">
+        <v>532</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>1875</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <v>1500</v>
+      </c>
+      <c r="E18">
+        <v>574</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>245</v>
+      </c>
+      <c r="H18">
+        <v>362</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>70</v>
+      </c>
+      <c r="M18">
+        <v>93</v>
+      </c>
+      <c r="N18">
+        <v>50</v>
+      </c>
+      <c r="O18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>2400</v>
+      </c>
+      <c r="C19">
+        <v>184</v>
+      </c>
+      <c r="D19">
+        <v>1694</v>
+      </c>
+      <c r="E19">
+        <v>1676</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>216</v>
+      </c>
+      <c r="H19">
+        <v>451</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>40</v>
+      </c>
+      <c r="L19">
+        <v>40</v>
+      </c>
+      <c r="M19">
+        <v>90</v>
+      </c>
+      <c r="N19">
+        <v>65</v>
+      </c>
+      <c r="O19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>1750</v>
+      </c>
+      <c r="C20">
+        <v>176</v>
+      </c>
+      <c r="D20">
+        <v>1720</v>
+      </c>
+      <c r="E20">
+        <v>488</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>264</v>
+      </c>
+      <c r="H20">
+        <v>505</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>40</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>90</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>1750</v>
+      </c>
+      <c r="C21">
+        <v>176</v>
+      </c>
+      <c r="D21">
+        <v>1720</v>
+      </c>
+      <c r="E21">
+        <v>488</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>264</v>
+      </c>
+      <c r="H21">
+        <v>505</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>90</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>1681</v>
+      </c>
+      <c r="C22">
+        <v>308</v>
+      </c>
+      <c r="D22">
+        <v>1555</v>
+      </c>
+      <c r="E22">
+        <v>549</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>255</v>
+      </c>
+      <c r="H22">
+        <v>492</v>
+      </c>
+      <c r="I22">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>75</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>65</v>
+      </c>
+      <c r="O22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>619</v>
+      </c>
+      <c r="C23">
+        <v>280</v>
+      </c>
+      <c r="D23">
+        <v>1216</v>
+      </c>
+      <c r="E23">
+        <v>525</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>423</v>
+      </c>
+      <c r="H23">
+        <v>492</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>35</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>35</v>
+      </c>
+      <c r="M23">
+        <v>85</v>
+      </c>
+      <c r="N23">
+        <v>35</v>
+      </c>
+      <c r="O23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>1556</v>
+      </c>
+      <c r="C24">
+        <v>840</v>
+      </c>
+      <c r="D24">
+        <v>211</v>
+      </c>
+      <c r="E24">
+        <v>500</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>280</v>
+      </c>
+      <c r="H24">
+        <v>532</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24">
+        <v>90</v>
+      </c>
+      <c r="O24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>1997</v>
+      </c>
+      <c r="C25">
+        <v>312</v>
+      </c>
+      <c r="D25">
+        <v>1640</v>
+      </c>
+      <c r="E25">
+        <v>542</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>265</v>
+      </c>
+      <c r="H25">
+        <v>505</v>
+      </c>
+      <c r="I25">
+        <v>35</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>88</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>80</v>
+      </c>
+      <c r="N25">
+        <v>50</v>
+      </c>
+      <c r="O25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>2074</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>1590</v>
+      </c>
+      <c r="E26">
+        <v>549</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>265</v>
+      </c>
+      <c r="H26">
+        <v>505</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>88</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>70</v>
+      </c>
+      <c r="N26">
+        <v>50</v>
+      </c>
+      <c r="O26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <v>300</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>160</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>120</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1681</v>
+      </c>
+      <c r="C28">
+        <v>304</v>
+      </c>
+      <c r="D28">
+        <v>1500</v>
+      </c>
+      <c r="E28">
+        <v>525</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>270</v>
+      </c>
+      <c r="H28">
+        <v>519</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>85</v>
+      </c>
+      <c r="M28">
+        <v>80</v>
+      </c>
+      <c r="N28">
+        <v>80</v>
+      </c>
+      <c r="O28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1681</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>1500</v>
+      </c>
+      <c r="E29">
+        <v>525</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>270</v>
+      </c>
+      <c r="H29">
+        <v>519</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>85</v>
+      </c>
+      <c r="M29">
+        <v>80</v>
+      </c>
+      <c r="N29">
+        <v>80</v>
+      </c>
+      <c r="O29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1675</v>
+      </c>
+      <c r="C30">
+        <v>308</v>
+      </c>
+      <c r="D30">
+        <v>1600</v>
+      </c>
+      <c r="E30">
+        <v>525</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>270</v>
+      </c>
+      <c r="H30">
+        <v>532</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>30</v>
+      </c>
+      <c r="L30">
+        <v>90</v>
+      </c>
+      <c r="M30">
+        <v>90</v>
+      </c>
+      <c r="N30">
+        <v>75</v>
+      </c>
+      <c r="O30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2225</v>
+      </c>
+      <c r="C31">
+        <v>320</v>
+      </c>
+      <c r="D31">
+        <v>2120</v>
+      </c>
+      <c r="E31">
+        <v>574</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>275</v>
+      </c>
+      <c r="H31">
+        <v>532</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="M31">
+        <v>88</v>
+      </c>
+      <c r="N31">
+        <v>90</v>
+      </c>
+      <c r="O31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1900</v>
+      </c>
+      <c r="C32">
+        <v>320</v>
+      </c>
+      <c r="D32">
+        <v>2000</v>
+      </c>
+      <c r="E32">
+        <v>574</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>275</v>
+      </c>
+      <c r="H32">
+        <v>562</v>
+      </c>
+      <c r="I32">
+        <v>35</v>
+      </c>
+      <c r="J32">
+        <v>80</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <v>88</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="O32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2525</v>
+      </c>
+      <c r="C33">
+        <v>328</v>
+      </c>
+      <c r="D33">
+        <v>2250</v>
+      </c>
+      <c r="E33">
+        <v>659</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>255</v>
+      </c>
+      <c r="H33">
+        <v>375</v>
+      </c>
+      <c r="I33">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C34">
+        <v>328</v>
+      </c>
+      <c r="D34">
+        <v>1800</v>
+      </c>
+      <c r="E34">
+        <v>623</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>275</v>
+      </c>
+      <c r="H34">
+        <v>524</v>
+      </c>
+      <c r="I34">
+        <v>35</v>
+      </c>
+      <c r="J34">
+        <v>30</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>75</v>
+      </c>
+      <c r="M34">
+        <v>85</v>
+      </c>
+      <c r="N34">
+        <v>65</v>
+      </c>
+      <c r="O34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C35">
+        <v>336</v>
+      </c>
+      <c r="D35">
+        <v>1890</v>
+      </c>
+      <c r="E35">
+        <v>635</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>290</v>
+      </c>
+      <c r="H35">
+        <v>554</v>
+      </c>
+      <c r="I35">
+        <v>35</v>
+      </c>
+      <c r="J35">
+        <v>75</v>
+      </c>
+      <c r="K35">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="M35">
+        <v>88</v>
+      </c>
+      <c r="N35">
+        <v>65</v>
+      </c>
+      <c r="O35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C36">
+        <v>344</v>
+      </c>
+      <c r="D36">
+        <v>1960</v>
+      </c>
+      <c r="E36">
+        <v>647</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>405</v>
+      </c>
+      <c r="H36">
+        <v>583</v>
+      </c>
+      <c r="I36">
+        <v>45</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>80</v>
+      </c>
+      <c r="L36">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>91</v>
+      </c>
+      <c r="N36">
+        <v>75</v>
+      </c>
+      <c r="O36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1497</v>
+      </c>
+      <c r="C37">
+        <v>264</v>
+      </c>
+      <c r="D37">
+        <v>2240</v>
+      </c>
+      <c r="E37">
+        <v>574</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>325</v>
+      </c>
+      <c r="H37">
+        <v>478</v>
+      </c>
+      <c r="I37">
+        <v>30</v>
+      </c>
+      <c r="J37">
+        <v>75</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>85</v>
+      </c>
+      <c r="N37">
+        <v>75</v>
+      </c>
+      <c r="O37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C38">
+        <v>336</v>
+      </c>
+      <c r="D38">
+        <v>2500</v>
+      </c>
+      <c r="E38">
+        <v>574</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>355</v>
+      </c>
+      <c r="H38">
+        <v>532</v>
+      </c>
+      <c r="I38">
+        <v>50</v>
+      </c>
+      <c r="J38">
+        <v>70</v>
+      </c>
+      <c r="K38">
+        <v>70</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="M38">
+        <v>100</v>
+      </c>
+      <c r="N38">
+        <v>30</v>
+      </c>
+      <c r="O38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C39">
+        <v>340</v>
+      </c>
+      <c r="D39">
+        <v>2800</v>
+      </c>
+      <c r="E39">
+        <v>647</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>340</v>
+      </c>
+      <c r="H39">
+        <v>600</v>
+      </c>
+      <c r="I39">
+        <v>30</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>50</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
+      <c r="M39">
+        <v>100</v>
+      </c>
+      <c r="N39">
+        <v>70</v>
+      </c>
+      <c r="O39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1731</v>
+      </c>
+      <c r="C40">
+        <v>336</v>
+      </c>
+      <c r="D40">
+        <v>1529</v>
+      </c>
+      <c r="E40">
+        <v>512</v>
+      </c>
+      <c r="F40">
+        <v>1600</v>
+      </c>
+      <c r="G40">
+        <v>365</v>
+      </c>
+      <c r="H40">
+        <v>505</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>80</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40">
+        <v>100</v>
+      </c>
+      <c r="M40">
+        <v>100</v>
+      </c>
+      <c r="N40">
+        <v>50</v>
+      </c>
+      <c r="O40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C41">
+        <v>352</v>
+      </c>
+      <c r="D41">
+        <v>2500</v>
+      </c>
+      <c r="E41">
+        <v>696</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>310</v>
+      </c>
+      <c r="H41">
+        <v>432</v>
+      </c>
+      <c r="I41">
+        <v>50</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>80</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>100</v>
+      </c>
+      <c r="N41">
+        <v>77</v>
+      </c>
+      <c r="O41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C42">
+        <v>320</v>
+      </c>
+      <c r="D42">
+        <v>2670</v>
+      </c>
+      <c r="E42">
+        <v>647</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>335</v>
+      </c>
+      <c r="H42">
+        <v>586</v>
+      </c>
+      <c r="I42">
+        <v>30</v>
+      </c>
+      <c r="J42">
+        <v>70</v>
+      </c>
+      <c r="K42">
+        <v>70</v>
+      </c>
+      <c r="L42">
+        <v>70</v>
+      </c>
+      <c r="M42">
+        <v>100</v>
+      </c>
+      <c r="N42">
+        <v>70</v>
+      </c>
+      <c r="O42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2700</v>
+      </c>
+      <c r="C43">
+        <v>360</v>
+      </c>
+      <c r="D43">
+        <v>2770</v>
+      </c>
+      <c r="E43">
+        <v>635</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>363</v>
+      </c>
+      <c r="H43">
+        <v>546</v>
+      </c>
+      <c r="I43">
+        <v>40</v>
+      </c>
+      <c r="J43">
+        <v>90</v>
+      </c>
+      <c r="K43">
+        <v>80</v>
+      </c>
+      <c r="L43">
+        <v>100</v>
+      </c>
+      <c r="M43">
+        <v>100</v>
+      </c>
+      <c r="N43">
+        <v>90</v>
+      </c>
+      <c r="O43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1">
+        <v>250</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>990</v>
+      </c>
+      <c r="E44">
+        <v>451</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>300</v>
+      </c>
+      <c r="H44">
+        <v>397</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>70</v>
+      </c>
+      <c r="K44">
+        <v>55</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44">
+        <v>1000</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9500</v>
+      </c>
+      <c r="C45">
+        <v>12100</v>
+      </c>
+      <c r="D45">
+        <v>1500</v>
+      </c>
+      <c r="E45">
+        <v>451</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>266</v>
+      </c>
+      <c r="H45">
+        <v>262</v>
+      </c>
+      <c r="I45">
+        <v>25</v>
+      </c>
+      <c r="J45">
+        <v>50</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45">
+        <v>82</v>
+      </c>
+      <c r="M45">
+        <v>1000</v>
+      </c>
+      <c r="N45">
+        <v>70</v>
+      </c>
+      <c r="O45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C46">
+        <v>14500</v>
+      </c>
+      <c r="D46">
+        <v>2100</v>
+      </c>
+      <c r="E46">
+        <v>840</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>345</v>
+      </c>
+      <c r="H46">
+        <v>535</v>
+      </c>
+      <c r="I46">
+        <v>25</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>70</v>
+      </c>
+      <c r="L46">
+        <v>50</v>
+      </c>
+      <c r="M46">
+        <v>1000</v>
+      </c>
+      <c r="N46">
+        <v>50</v>
+      </c>
+      <c r="O46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C47">
+        <v>60</v>
+      </c>
+      <c r="D47">
+        <v>2000</v>
+      </c>
+      <c r="E47">
+        <v>598</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>320</v>
+      </c>
+      <c r="H47">
+        <v>505</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>85</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47">
+        <v>98</v>
+      </c>
+      <c r="M47">
+        <v>1000</v>
+      </c>
+      <c r="N47">
+        <v>90</v>
+      </c>
+      <c r="O47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>623</v>
+      </c>
+      <c r="F48">
+        <v>1000</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>370</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>90</v>
+      </c>
+      <c r="K48">
+        <v>90</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+      <c r="M48">
+        <v>1000</v>
+      </c>
+      <c r="N48">
+        <v>65</v>
+      </c>
+      <c r="O48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2700</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1800</v>
+      </c>
+      <c r="E49">
+        <v>451</v>
+      </c>
+      <c r="F49">
+        <v>1000</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>262</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>90</v>
+      </c>
+      <c r="K49">
+        <v>90</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49">
+        <v>1000</v>
+      </c>
+      <c r="N49">
+        <v>65</v>
+      </c>
+      <c r="O49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>598</v>
+      </c>
+      <c r="F50">
+        <v>1300</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>384</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>75</v>
+      </c>
+      <c r="K50">
+        <v>45</v>
+      </c>
+      <c r="L50">
+        <v>90</v>
+      </c>
+      <c r="M50">
+        <v>1000</v>
+      </c>
+      <c r="N50">
+        <v>65</v>
+      </c>
+      <c r="O50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>451</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>451</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>50</v>
+      </c>
+      <c r="K51">
+        <v>70</v>
+      </c>
+      <c r="L51">
+        <v>80</v>
+      </c>
+      <c r="M51">
+        <v>1000</v>
+      </c>
+      <c r="N51">
+        <v>45</v>
+      </c>
+      <c r="O51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C52">
+        <v>16300</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>745</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>573</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>70</v>
+      </c>
+      <c r="K52">
+        <v>50</v>
+      </c>
+      <c r="L52">
+        <v>100</v>
+      </c>
+      <c r="M52">
+        <v>1000</v>
+      </c>
+      <c r="N52">
+        <v>65</v>
+      </c>
+      <c r="O52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>2100</v>
+      </c>
+      <c r="E53">
+        <v>745</v>
+      </c>
+      <c r="F53">
+        <v>2000</v>
+      </c>
+      <c r="G53">
+        <v>470</v>
+      </c>
+      <c r="H53">
+        <v>600</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>70</v>
+      </c>
+      <c r="K53">
+        <v>100</v>
+      </c>
+      <c r="L53">
+        <v>50</v>
+      </c>
+      <c r="M53">
+        <v>1000</v>
+      </c>
+      <c r="N53">
+        <v>65</v>
+      </c>
+      <c r="O53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="1">
+        <v>8900</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>2700</v>
+      </c>
+      <c r="E54">
+        <v>745</v>
+      </c>
+      <c r="F54">
+        <v>2250</v>
+      </c>
+      <c r="G54">
+        <v>470</v>
+      </c>
+      <c r="H54">
+        <v>600</v>
+      </c>
+      <c r="I54">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>55</v>
+      </c>
+      <c r="L54">
+        <v>65</v>
+      </c>
+      <c r="M54">
+        <v>1000</v>
+      </c>
+      <c r="N54">
+        <v>65</v>
+      </c>
+      <c r="O54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C55">
+        <v>39000</v>
+      </c>
+      <c r="D55">
+        <v>2230</v>
+      </c>
+      <c r="E55">
+        <v>960</v>
+      </c>
+      <c r="F55">
+        <v>2500</v>
+      </c>
+      <c r="G55">
+        <v>470</v>
+      </c>
+      <c r="H55">
+        <v>720</v>
+      </c>
+      <c r="I55">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>60</v>
+      </c>
+      <c r="K55">
+        <v>100</v>
+      </c>
+      <c r="L55">
+        <v>75</v>
+      </c>
+      <c r="M55">
+        <v>1000</v>
+      </c>
+      <c r="N55">
+        <v>75</v>
+      </c>
+      <c r="O55">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/projects/pso/PSO_Enemy.xlsx
+++ b/projects/pso/PSO_Enemy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johndellarosa/Github/johndellarosa.github.io/projects/pso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE941D0-4B6A-C04B-B49A-5C4311D7170E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04927020-26BC-9241-9C3B-1EE93D37F94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="500" windowWidth="21040" windowHeight="18680" activeTab="7" xr2:uid="{A19BC9D2-BC35-874F-8916-558C82066E38}"/>
+    <workbookView xWindow="12560" yWindow="500" windowWidth="21040" windowHeight="18680" firstSheet="3" activeTab="11" xr2:uid="{A19BC9D2-BC35-874F-8916-558C82066E38}"/>
   </bookViews>
   <sheets>
     <sheet name="Ep1 Normal" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,17 @@
     <sheet name="Ep2 Hard" sheetId="8" r:id="rId6"/>
     <sheet name="Ep2 V Hard" sheetId="9" r:id="rId7"/>
     <sheet name="Ep2 Ultimate" sheetId="10" r:id="rId8"/>
+    <sheet name="Ep4 Normal" sheetId="11" r:id="rId9"/>
+    <sheet name="Ep4 Hard" sheetId="12" r:id="rId10"/>
+    <sheet name="Ep4 V Hard" sheetId="13" r:id="rId11"/>
+    <sheet name="Ep4 Ultimate" sheetId="14" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="Ep4_Hard" localSheetId="9">'Ep4 Hard'!$A$1:$N$37</definedName>
+    <definedName name="Ep4_Normal" localSheetId="8">'Ep4 Normal'!$A$1:$N$37</definedName>
+    <definedName name="Ep4_Ultimate" localSheetId="11">'Ep4 Ultimate'!$A$1:$N$37</definedName>
+    <definedName name="Ep4_Very_Hard" localSheetId="10">'Ep4 V Hard'!$A$1:$N$37</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,8 +52,97 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{AF9D4C63-8038-104C-BBF6-5609176B16A9}" name="Ep4 Hard" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Hard" tab="0" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{06317BDA-417D-6740-B669-A0A8FC2DE7C1}" name="Ep4 Normal" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Normal" tab="0" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{60604914-FA23-9A44-911D-5D6363228B64}" name="Ep4 Ultimate" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Ultimate" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{D2735A56-D612-C246-92D3-B56A92086F63}" name="Ep4 Very Hard" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Very Hard" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="137">
   <si>
     <t>Rag Rappy</t>
   </si>
@@ -347,6 +446,114 @@
   <si>
     <t>Giel</t>
   </si>
+  <si>
+    <t>Boota</t>
+  </si>
+  <si>
+    <t>Ze Boota</t>
+  </si>
+  <si>
+    <t>Ba Boota</t>
+  </si>
+  <si>
+    <t>Sand Rappy</t>
+  </si>
+  <si>
+    <t>Del Rappy</t>
+  </si>
+  <si>
+    <t>Zu</t>
+  </si>
+  <si>
+    <t>Pazuzu</t>
+  </si>
+  <si>
+    <t>Astark</t>
+  </si>
+  <si>
+    <t>Satellite Lizard</t>
+  </si>
+  <si>
+    <t>Yowie</t>
+  </si>
+  <si>
+    <t>Dorphon</t>
+  </si>
+  <si>
+    <t>Dorphon Eclair</t>
+  </si>
+  <si>
+    <t>Goran</t>
+  </si>
+  <si>
+    <t>Pyro Goran</t>
+  </si>
+  <si>
+    <t>Goran Detonator</t>
+  </si>
+  <si>
+    <t>Sand Rappy Alt</t>
+  </si>
+  <si>
+    <t>Del Rappy Alt</t>
+  </si>
+  <si>
+    <t>Merissa A</t>
+  </si>
+  <si>
+    <t>Merissa Aa</t>
+  </si>
+  <si>
+    <t>Zu Alt</t>
+  </si>
+  <si>
+    <t>Pazuzu Alt</t>
+  </si>
+  <si>
+    <t>Satellite Lizard Alt</t>
+  </si>
+  <si>
+    <t>Yowie Alt</t>
+  </si>
+  <si>
+    <t>Girtablulu</t>
+  </si>
+  <si>
+    <t>Saint Million 1</t>
+  </si>
+  <si>
+    <t>Spinner Saint 1</t>
+  </si>
+  <si>
+    <t>Saint Million 2</t>
+  </si>
+  <si>
+    <t>Spinner Saint 2</t>
+  </si>
+  <si>
+    <t>Shambertin 1</t>
+  </si>
+  <si>
+    <t>Spinner Shambertin 1</t>
+  </si>
+  <si>
+    <t>Shambertin 2</t>
+  </si>
+  <si>
+    <t>Spinner Shambertin 2</t>
+  </si>
+  <si>
+    <t>Kondrieu 1</t>
+  </si>
+  <si>
+    <t>Spinner Kondrieu 1</t>
+  </si>
+  <si>
+    <t>Kondrieu 2</t>
+  </si>
+  <si>
+    <t>Spinner Kondrieu 2</t>
+  </si>
 </sst>
 </file>
 
@@ -389,10 +596,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +616,26 @@
 </styleSheet>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Ep4 Normal" connectionId="2" xr16:uid="{A41FC637-4EEA-014C-B7E7-1801C8365A45}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Ep4 Hard" connectionId="1" xr16:uid="{A5D0D083-150E-4247-BDDE-4CE12E9C7758}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Ep4 Very Hard" connectionId="4" xr16:uid="{1A6EB0E8-DFD6-A24E-A00D-CA794FEC7EB0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Ep4 Ultimate" connectionId="3" xr16:uid="{45B46F93-FBD0-A54E-86E8-17AB7A9FEE93}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -451,7 +673,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -557,7 +779,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -699,7 +921,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,7 +932,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3250,6 +3472,5314 @@
         <v>30</v>
       </c>
       <c r="O54">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E901E8-FE76-CC4B-9CCA-5AF77B85ADC9}">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>769</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>495</v>
+      </c>
+      <c r="E2">
+        <v>129</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>210</v>
+      </c>
+      <c r="H2">
+        <v>155</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>70</v>
+      </c>
+      <c r="L2">
+        <v>35</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>808</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>544</v>
+      </c>
+      <c r="E3">
+        <v>142</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>222</v>
+      </c>
+      <c r="H3">
+        <v>169</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>70</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>844</v>
+      </c>
+      <c r="C4">
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <v>599</v>
+      </c>
+      <c r="E4">
+        <v>156</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>234</v>
+      </c>
+      <c r="H4">
+        <v>179</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
+      <c r="K4">
+        <v>55</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>700</v>
+      </c>
+      <c r="C5">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>520</v>
+      </c>
+      <c r="E5">
+        <v>131</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>209</v>
+      </c>
+      <c r="H5">
+        <v>162</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>1984</v>
+      </c>
+      <c r="C6">
+        <v>390</v>
+      </c>
+      <c r="D6">
+        <v>644</v>
+      </c>
+      <c r="E6">
+        <v>171</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>215</v>
+      </c>
+      <c r="H6">
+        <v>264</v>
+      </c>
+      <c r="I6">
+        <v>92</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="L6">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>75</v>
+      </c>
+      <c r="O6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>1022</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>631</v>
+      </c>
+      <c r="E7">
+        <v>137</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>265</v>
+      </c>
+      <c r="H7">
+        <v>125</v>
+      </c>
+      <c r="I7">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>80</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>1839</v>
+      </c>
+      <c r="C8">
+        <v>617</v>
+      </c>
+      <c r="D8">
+        <v>758</v>
+      </c>
+      <c r="E8">
+        <v>146</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>284</v>
+      </c>
+      <c r="H8">
+        <v>138</v>
+      </c>
+      <c r="I8">
+        <v>39</v>
+      </c>
+      <c r="J8">
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <v>60</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>75</v>
+      </c>
+      <c r="N8">
+        <v>45</v>
+      </c>
+      <c r="O8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>1251</v>
+      </c>
+      <c r="C9">
+        <v>88</v>
+      </c>
+      <c r="D9">
+        <v>615</v>
+      </c>
+      <c r="E9">
+        <v>134</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>220</v>
+      </c>
+      <c r="H9">
+        <v>101</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>40</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>60</v>
+      </c>
+      <c r="O9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>707</v>
+      </c>
+      <c r="C10">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>560</v>
+      </c>
+      <c r="E10">
+        <v>158</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>242</v>
+      </c>
+      <c r="H10">
+        <v>202</v>
+      </c>
+      <c r="I10">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>736</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>609</v>
+      </c>
+      <c r="E11">
+        <v>170</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>244</v>
+      </c>
+      <c r="H11">
+        <v>238</v>
+      </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>60</v>
+      </c>
+      <c r="L11">
+        <v>60</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>2432</v>
+      </c>
+      <c r="C12">
+        <v>165</v>
+      </c>
+      <c r="D12">
+        <v>583</v>
+      </c>
+      <c r="E12">
+        <v>121</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>234</v>
+      </c>
+      <c r="H12">
+        <v>157</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>60</v>
+      </c>
+      <c r="L12">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>75</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>2874</v>
+      </c>
+      <c r="C13">
+        <v>709</v>
+      </c>
+      <c r="D13">
+        <v>601</v>
+      </c>
+      <c r="E13">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>265</v>
+      </c>
+      <c r="H13">
+        <v>173</v>
+      </c>
+      <c r="I13">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>75</v>
+      </c>
+      <c r="K13">
+        <v>30</v>
+      </c>
+      <c r="L13">
+        <v>95</v>
+      </c>
+      <c r="M13">
+        <v>75</v>
+      </c>
+      <c r="N13">
+        <v>45</v>
+      </c>
+      <c r="O13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>936</v>
+      </c>
+      <c r="C14">
+        <v>125</v>
+      </c>
+      <c r="D14">
+        <v>719</v>
+      </c>
+      <c r="E14">
+        <v>176</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>220</v>
+      </c>
+      <c r="H14">
+        <v>180</v>
+      </c>
+      <c r="I14">
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>70</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>50</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>979</v>
+      </c>
+      <c r="C15">
+        <v>134</v>
+      </c>
+      <c r="D15">
+        <v>768</v>
+      </c>
+      <c r="E15">
+        <v>196</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>230</v>
+      </c>
+      <c r="H15">
+        <v>184</v>
+      </c>
+      <c r="I15">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>15</v>
+      </c>
+      <c r="L15">
+        <v>70</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>50</v>
+      </c>
+      <c r="O15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>1281</v>
+      </c>
+      <c r="C16">
+        <v>169</v>
+      </c>
+      <c r="D16">
+        <v>904</v>
+      </c>
+      <c r="E16">
+        <v>247</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>264</v>
+      </c>
+      <c r="H16">
+        <v>209</v>
+      </c>
+      <c r="I16">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <v>80</v>
+      </c>
+      <c r="K16">
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>60</v>
+      </c>
+      <c r="O16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17">
+        <v>830</v>
+      </c>
+      <c r="C17">
+        <v>119</v>
+      </c>
+      <c r="D17">
+        <v>830</v>
+      </c>
+      <c r="E17">
+        <v>179</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>209</v>
+      </c>
+      <c r="H17">
+        <v>171</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>35</v>
+      </c>
+      <c r="L17">
+        <v>70</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>40</v>
+      </c>
+      <c r="O17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>2352</v>
+      </c>
+      <c r="C18">
+        <v>759</v>
+      </c>
+      <c r="D18">
+        <v>1028</v>
+      </c>
+      <c r="E18">
+        <v>234</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>215</v>
+      </c>
+      <c r="H18">
+        <v>278</v>
+      </c>
+      <c r="I18">
+        <v>92</v>
+      </c>
+      <c r="J18">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>70</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>85</v>
+      </c>
+      <c r="O18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>923</v>
+      </c>
+      <c r="C19">
+        <v>131</v>
+      </c>
+      <c r="D19">
+        <v>768</v>
+      </c>
+      <c r="E19">
+        <v>151</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>199</v>
+      </c>
+      <c r="H19">
+        <v>156</v>
+      </c>
+      <c r="I19">
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>80</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19">
+        <v>75</v>
+      </c>
+      <c r="O19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>1274</v>
+      </c>
+      <c r="C20">
+        <v>835</v>
+      </c>
+      <c r="D20">
+        <v>999</v>
+      </c>
+      <c r="E20">
+        <v>169</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>357</v>
+      </c>
+      <c r="H20">
+        <v>164</v>
+      </c>
+      <c r="I20">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <v>80</v>
+      </c>
+      <c r="O20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>1153</v>
+      </c>
+      <c r="C21">
+        <v>152</v>
+      </c>
+      <c r="D21">
+        <v>902</v>
+      </c>
+      <c r="E21">
+        <v>185</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>299</v>
+      </c>
+      <c r="H21">
+        <v>167</v>
+      </c>
+      <c r="I21">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>80</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>70</v>
+      </c>
+      <c r="O21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>2394</v>
+      </c>
+      <c r="C22">
+        <v>877</v>
+      </c>
+      <c r="D22">
+        <v>1073</v>
+      </c>
+      <c r="E22">
+        <v>65338</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>320</v>
+      </c>
+      <c r="H22">
+        <v>175</v>
+      </c>
+      <c r="I22">
+        <v>41</v>
+      </c>
+      <c r="J22">
+        <v>95</v>
+      </c>
+      <c r="K22">
+        <v>70</v>
+      </c>
+      <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>60</v>
+      </c>
+      <c r="N22">
+        <v>55</v>
+      </c>
+      <c r="O22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>861</v>
+      </c>
+      <c r="C23">
+        <v>136</v>
+      </c>
+      <c r="D23">
+        <v>774</v>
+      </c>
+      <c r="E23">
+        <v>213</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>248</v>
+      </c>
+      <c r="H23">
+        <v>211</v>
+      </c>
+      <c r="I23">
+        <v>29</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>25</v>
+      </c>
+      <c r="O23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>944</v>
+      </c>
+      <c r="C24">
+        <v>148</v>
+      </c>
+      <c r="D24">
+        <v>833</v>
+      </c>
+      <c r="E24">
+        <v>228</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>256</v>
+      </c>
+      <c r="H24">
+        <v>250</v>
+      </c>
+      <c r="I24">
+        <v>33</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>55</v>
+      </c>
+      <c r="L24">
+        <v>55</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25">
+        <v>4445</v>
+      </c>
+      <c r="C25">
+        <v>166</v>
+      </c>
+      <c r="D25">
+        <v>822</v>
+      </c>
+      <c r="E25">
+        <v>179</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>252</v>
+      </c>
+      <c r="H25">
+        <v>136</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <v>40</v>
+      </c>
+      <c r="K25">
+        <v>80</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>75</v>
+      </c>
+      <c r="O25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26">
+        <v>8820</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1800</v>
+      </c>
+      <c r="E26">
+        <v>270</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>380</v>
+      </c>
+      <c r="H26">
+        <v>125</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>80</v>
+      </c>
+      <c r="K26">
+        <v>60</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27">
+        <v>1352</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1100</v>
+      </c>
+      <c r="E27">
+        <v>180</v>
+      </c>
+      <c r="F27">
+        <v>300</v>
+      </c>
+      <c r="G27">
+        <v>380</v>
+      </c>
+      <c r="H27">
+        <v>125</v>
+      </c>
+      <c r="I27">
+        <v>75</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>45</v>
+      </c>
+      <c r="L27">
+        <v>45</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28">
+        <v>13800</v>
+      </c>
+      <c r="C28">
+        <v>10010</v>
+      </c>
+      <c r="D28">
+        <v>1859</v>
+      </c>
+      <c r="E28">
+        <v>400</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>380</v>
+      </c>
+      <c r="H28">
+        <v>216</v>
+      </c>
+      <c r="I28">
+        <v>75</v>
+      </c>
+      <c r="J28">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>85</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29">
+        <v>1081</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1090</v>
+      </c>
+      <c r="E29">
+        <v>180</v>
+      </c>
+      <c r="F29">
+        <v>300</v>
+      </c>
+      <c r="G29">
+        <v>380</v>
+      </c>
+      <c r="H29">
+        <v>125</v>
+      </c>
+      <c r="I29">
+        <v>75</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>45</v>
+      </c>
+      <c r="L29">
+        <v>45</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30">
+        <v>10584</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2160</v>
+      </c>
+      <c r="E30">
+        <v>270</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>380</v>
+      </c>
+      <c r="H30">
+        <v>125</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>60</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>80</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31">
+        <v>1620</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1320</v>
+      </c>
+      <c r="E31">
+        <v>180</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>380</v>
+      </c>
+      <c r="H31">
+        <v>125</v>
+      </c>
+      <c r="I31">
+        <v>75</v>
+      </c>
+      <c r="J31">
+        <v>45</v>
+      </c>
+      <c r="K31">
+        <v>45</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32">
+        <v>16560</v>
+      </c>
+      <c r="C32">
+        <v>10010</v>
+      </c>
+      <c r="D32">
+        <v>2230</v>
+      </c>
+      <c r="E32">
+        <v>400</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>380</v>
+      </c>
+      <c r="H32">
+        <v>216</v>
+      </c>
+      <c r="I32">
+        <v>75</v>
+      </c>
+      <c r="J32">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>85</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33">
+        <v>1296</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1308</v>
+      </c>
+      <c r="E33">
+        <v>180</v>
+      </c>
+      <c r="F33">
+        <v>300</v>
+      </c>
+      <c r="G33">
+        <v>380</v>
+      </c>
+      <c r="H33">
+        <v>125</v>
+      </c>
+      <c r="I33">
+        <v>75</v>
+      </c>
+      <c r="J33">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>45</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34">
+        <v>13230</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2052</v>
+      </c>
+      <c r="E34">
+        <v>270</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>380</v>
+      </c>
+      <c r="H34">
+        <v>125</v>
+      </c>
+      <c r="I34">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>80</v>
+      </c>
+      <c r="L34">
+        <v>60</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35">
+        <v>2025</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1254</v>
+      </c>
+      <c r="E35">
+        <v>180</v>
+      </c>
+      <c r="F35">
+        <v>300</v>
+      </c>
+      <c r="G35">
+        <v>380</v>
+      </c>
+      <c r="H35">
+        <v>125</v>
+      </c>
+      <c r="I35">
+        <v>75</v>
+      </c>
+      <c r="J35">
+        <v>60</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>60</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36">
+        <v>20700</v>
+      </c>
+      <c r="C36">
+        <v>10010</v>
+      </c>
+      <c r="D36">
+        <v>2119</v>
+      </c>
+      <c r="E36">
+        <v>400</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>380</v>
+      </c>
+      <c r="H36">
+        <v>216</v>
+      </c>
+      <c r="I36">
+        <v>75</v>
+      </c>
+      <c r="J36">
+        <v>85</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>85</v>
+      </c>
+      <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37">
+        <v>1621</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1243</v>
+      </c>
+      <c r="E37">
+        <v>180</v>
+      </c>
+      <c r="F37">
+        <v>300</v>
+      </c>
+      <c r="G37">
+        <v>380</v>
+      </c>
+      <c r="H37">
+        <v>125</v>
+      </c>
+      <c r="I37">
+        <v>75</v>
+      </c>
+      <c r="J37">
+        <v>60</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>60</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3929D3-8731-3A4A-9768-75FB908E8E7B}">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>1063</v>
+      </c>
+      <c r="C2">
+        <v>128</v>
+      </c>
+      <c r="D2">
+        <v>841</v>
+      </c>
+      <c r="E2">
+        <v>243</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>260</v>
+      </c>
+      <c r="H2">
+        <v>207</v>
+      </c>
+      <c r="I2">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>45</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>60</v>
+      </c>
+      <c r="O2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>1099</v>
+      </c>
+      <c r="C3">
+        <v>139</v>
+      </c>
+      <c r="D3">
+        <v>925</v>
+      </c>
+      <c r="E3">
+        <v>267</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>273</v>
+      </c>
+      <c r="H3">
+        <v>222</v>
+      </c>
+      <c r="I3">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>45</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>90</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>1131</v>
+      </c>
+      <c r="C4">
+        <v>145</v>
+      </c>
+      <c r="D4">
+        <v>1017</v>
+      </c>
+      <c r="E4">
+        <v>293</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>286</v>
+      </c>
+      <c r="H4">
+        <v>233</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>95</v>
+      </c>
+      <c r="K4">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>70</v>
+      </c>
+      <c r="O4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>977</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>883</v>
+      </c>
+      <c r="E5">
+        <v>248</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>261</v>
+      </c>
+      <c r="H5">
+        <v>198</v>
+      </c>
+      <c r="I5">
+        <v>75</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>45</v>
+      </c>
+      <c r="O5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>2373</v>
+      </c>
+      <c r="C6">
+        <v>622</v>
+      </c>
+      <c r="D6">
+        <v>977</v>
+      </c>
+      <c r="E6">
+        <v>311</v>
+      </c>
+      <c r="F6">
+        <v>450</v>
+      </c>
+      <c r="G6">
+        <v>269</v>
+      </c>
+      <c r="H6">
+        <v>304</v>
+      </c>
+      <c r="I6">
+        <v>107</v>
+      </c>
+      <c r="J6">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>95</v>
+      </c>
+      <c r="L6">
+        <v>75</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>90</v>
+      </c>
+      <c r="O6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>1365</v>
+      </c>
+      <c r="C7">
+        <v>158</v>
+      </c>
+      <c r="D7">
+        <v>958</v>
+      </c>
+      <c r="E7">
+        <v>255</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>310</v>
+      </c>
+      <c r="H7">
+        <v>170</v>
+      </c>
+      <c r="I7">
+        <v>52</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>90</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>2184</v>
+      </c>
+      <c r="C8">
+        <v>797</v>
+      </c>
+      <c r="D8">
+        <v>1150</v>
+      </c>
+      <c r="E8">
+        <v>273</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>332</v>
+      </c>
+      <c r="H8">
+        <v>154</v>
+      </c>
+      <c r="I8">
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="K8">
+        <v>75</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>90</v>
+      </c>
+      <c r="N8">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>1574</v>
+      </c>
+      <c r="C9">
+        <v>162</v>
+      </c>
+      <c r="D9">
+        <v>942</v>
+      </c>
+      <c r="E9">
+        <v>239</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>270</v>
+      </c>
+      <c r="H9">
+        <v>141</v>
+      </c>
+      <c r="I9">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>95</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>963</v>
+      </c>
+      <c r="C10">
+        <v>142</v>
+      </c>
+      <c r="D10">
+        <v>935</v>
+      </c>
+      <c r="E10">
+        <v>290</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>298</v>
+      </c>
+      <c r="H10">
+        <v>254</v>
+      </c>
+      <c r="I10">
+        <v>46</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>60</v>
+      </c>
+      <c r="L10">
+        <v>60</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>25</v>
+      </c>
+      <c r="O10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1037</v>
+      </c>
+      <c r="C11">
+        <v>148</v>
+      </c>
+      <c r="D11">
+        <v>1034</v>
+      </c>
+      <c r="E11">
+        <v>318</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>300</v>
+      </c>
+      <c r="H11">
+        <v>294</v>
+      </c>
+      <c r="I11">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>75</v>
+      </c>
+      <c r="L11">
+        <v>75</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>2795</v>
+      </c>
+      <c r="C12">
+        <v>258</v>
+      </c>
+      <c r="D12">
+        <v>1046</v>
+      </c>
+      <c r="E12">
+        <v>251</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>286</v>
+      </c>
+      <c r="H12">
+        <v>233</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>75</v>
+      </c>
+      <c r="L12">
+        <v>90</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>90</v>
+      </c>
+      <c r="O12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>3303</v>
+      </c>
+      <c r="C13">
+        <v>916</v>
+      </c>
+      <c r="D13">
+        <v>1077</v>
+      </c>
+      <c r="E13">
+        <v>263</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>310</v>
+      </c>
+      <c r="H13">
+        <v>257</v>
+      </c>
+      <c r="I13">
+        <v>52</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>35</v>
+      </c>
+      <c r="L13">
+        <v>95</v>
+      </c>
+      <c r="M13">
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <v>60</v>
+      </c>
+      <c r="O13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>1318</v>
+      </c>
+      <c r="C14">
+        <v>194</v>
+      </c>
+      <c r="D14">
+        <v>1050</v>
+      </c>
+      <c r="E14">
+        <v>292</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>275</v>
+      </c>
+      <c r="H14">
+        <v>233</v>
+      </c>
+      <c r="I14">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+      <c r="L14">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>70</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>1364</v>
+      </c>
+      <c r="C15">
+        <v>204</v>
+      </c>
+      <c r="D15">
+        <v>1099</v>
+      </c>
+      <c r="E15">
+        <v>315</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>285</v>
+      </c>
+      <c r="H15">
+        <v>238</v>
+      </c>
+      <c r="I15">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>80</v>
+      </c>
+      <c r="M15">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <v>70</v>
+      </c>
+      <c r="O15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>1784</v>
+      </c>
+      <c r="C16">
+        <v>257</v>
+      </c>
+      <c r="D16">
+        <v>1293</v>
+      </c>
+      <c r="E16">
+        <v>397</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>325</v>
+      </c>
+      <c r="H16">
+        <v>269</v>
+      </c>
+      <c r="I16">
+        <v>44</v>
+      </c>
+      <c r="J16">
+        <v>90</v>
+      </c>
+      <c r="K16">
+        <v>75</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>80</v>
+      </c>
+      <c r="O16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17">
+        <v>1169</v>
+      </c>
+      <c r="C17">
+        <v>185</v>
+      </c>
+      <c r="D17">
+        <v>1187</v>
+      </c>
+      <c r="E17">
+        <v>297</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>261</v>
+      </c>
+      <c r="H17">
+        <v>221</v>
+      </c>
+      <c r="I17">
+        <v>75</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>45</v>
+      </c>
+      <c r="L17">
+        <v>90</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>55</v>
+      </c>
+      <c r="O17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>2841</v>
+      </c>
+      <c r="C18">
+        <v>934</v>
+      </c>
+      <c r="D18">
+        <v>1314</v>
+      </c>
+      <c r="E18">
+        <v>374</v>
+      </c>
+      <c r="F18">
+        <v>450</v>
+      </c>
+      <c r="G18">
+        <v>269</v>
+      </c>
+      <c r="H18">
+        <v>339</v>
+      </c>
+      <c r="I18">
+        <v>107</v>
+      </c>
+      <c r="J18">
+        <v>45</v>
+      </c>
+      <c r="K18">
+        <v>95</v>
+      </c>
+      <c r="L18">
+        <v>80</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>98</v>
+      </c>
+      <c r="O18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>1286</v>
+      </c>
+      <c r="C19">
+        <v>204</v>
+      </c>
+      <c r="D19">
+        <v>1099</v>
+      </c>
+      <c r="E19">
+        <v>250</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>248</v>
+      </c>
+      <c r="H19">
+        <v>204</v>
+      </c>
+      <c r="I19">
+        <v>38</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>70</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>45</v>
+      </c>
+      <c r="N19">
+        <v>98</v>
+      </c>
+      <c r="O19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>1722</v>
+      </c>
+      <c r="C20">
+        <v>965</v>
+      </c>
+      <c r="D20">
+        <v>1241</v>
+      </c>
+      <c r="E20">
+        <v>268</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>447</v>
+      </c>
+      <c r="H20">
+        <v>215</v>
+      </c>
+      <c r="I20">
+        <v>61</v>
+      </c>
+      <c r="J20">
+        <v>75</v>
+      </c>
+      <c r="K20">
+        <v>60</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>45</v>
+      </c>
+      <c r="N20">
+        <v>98</v>
+      </c>
+      <c r="O20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>1504</v>
+      </c>
+      <c r="C21">
+        <v>224</v>
+      </c>
+      <c r="D21">
+        <v>1239</v>
+      </c>
+      <c r="E21">
+        <v>295</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>354</v>
+      </c>
+      <c r="H21">
+        <v>219</v>
+      </c>
+      <c r="I21">
+        <v>55</v>
+      </c>
+      <c r="J21">
+        <v>60</v>
+      </c>
+      <c r="K21">
+        <v>30</v>
+      </c>
+      <c r="L21">
+        <v>90</v>
+      </c>
+      <c r="M21">
+        <v>15</v>
+      </c>
+      <c r="N21">
+        <v>90</v>
+      </c>
+      <c r="O21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>2892</v>
+      </c>
+      <c r="C22">
+        <v>1013</v>
+      </c>
+      <c r="D22">
+        <v>1379</v>
+      </c>
+      <c r="E22">
+        <v>316</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>379</v>
+      </c>
+      <c r="H22">
+        <v>230</v>
+      </c>
+      <c r="I22">
+        <v>59</v>
+      </c>
+      <c r="J22">
+        <v>98</v>
+      </c>
+      <c r="K22">
+        <v>80</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>80</v>
+      </c>
+      <c r="N22">
+        <v>70</v>
+      </c>
+      <c r="O22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>1197</v>
+      </c>
+      <c r="C23">
+        <v>209</v>
+      </c>
+      <c r="D23">
+        <v>1106</v>
+      </c>
+      <c r="E23">
+        <v>339</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>300</v>
+      </c>
+      <c r="H23">
+        <v>258</v>
+      </c>
+      <c r="I23">
+        <v>49</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>65</v>
+      </c>
+      <c r="L23">
+        <v>65</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="N23">
+        <v>35</v>
+      </c>
+      <c r="O23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>1295</v>
+      </c>
+      <c r="C24">
+        <v>216</v>
+      </c>
+      <c r="D24">
+        <v>1184</v>
+      </c>
+      <c r="E24">
+        <v>368</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>312</v>
+      </c>
+      <c r="H24">
+        <v>298</v>
+      </c>
+      <c r="I24">
+        <v>54</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>80</v>
+      </c>
+      <c r="L24">
+        <v>80</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="N24">
+        <v>40</v>
+      </c>
+      <c r="O24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25">
+        <v>4881</v>
+      </c>
+      <c r="C25">
+        <v>258</v>
+      </c>
+      <c r="D25">
+        <v>1150</v>
+      </c>
+      <c r="E25">
+        <v>302</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>322</v>
+      </c>
+      <c r="H25">
+        <v>182</v>
+      </c>
+      <c r="I25">
+        <v>36</v>
+      </c>
+      <c r="J25">
+        <v>50</v>
+      </c>
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
+      </c>
+      <c r="N25">
+        <v>90</v>
+      </c>
+      <c r="O25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26">
+        <v>13608</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2550</v>
+      </c>
+      <c r="E26">
+        <v>473</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>422</v>
+      </c>
+      <c r="H26">
+        <v>186</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>90</v>
+      </c>
+      <c r="K26">
+        <v>75</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27">
+        <v>2175</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1660</v>
+      </c>
+      <c r="E27">
+        <v>275</v>
+      </c>
+      <c r="F27">
+        <v>300</v>
+      </c>
+      <c r="G27">
+        <v>422</v>
+      </c>
+      <c r="H27">
+        <v>186</v>
+      </c>
+      <c r="I27">
+        <v>85</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>55</v>
+      </c>
+      <c r="L27">
+        <v>55</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28">
+        <v>19320</v>
+      </c>
+      <c r="C28">
+        <v>19500</v>
+      </c>
+      <c r="D28">
+        <v>2447</v>
+      </c>
+      <c r="E28">
+        <v>575</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>422</v>
+      </c>
+      <c r="H28">
+        <v>246</v>
+      </c>
+      <c r="I28">
+        <v>75</v>
+      </c>
+      <c r="J28">
+        <v>95</v>
+      </c>
+      <c r="K28">
+        <v>25</v>
+      </c>
+      <c r="L28">
+        <v>95</v>
+      </c>
+      <c r="M28">
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29">
+        <v>1740</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1590</v>
+      </c>
+      <c r="E29">
+        <v>275</v>
+      </c>
+      <c r="F29">
+        <v>300</v>
+      </c>
+      <c r="G29">
+        <v>422</v>
+      </c>
+      <c r="H29">
+        <v>186</v>
+      </c>
+      <c r="I29">
+        <v>85</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>55</v>
+      </c>
+      <c r="L29">
+        <v>55</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30">
+        <v>17350</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3060</v>
+      </c>
+      <c r="E30">
+        <v>473</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>422</v>
+      </c>
+      <c r="H30">
+        <v>186</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>75</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+      <c r="L30">
+        <v>90</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31">
+        <v>2610</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1992</v>
+      </c>
+      <c r="E31">
+        <v>275</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>422</v>
+      </c>
+      <c r="H31">
+        <v>186</v>
+      </c>
+      <c r="I31">
+        <v>85</v>
+      </c>
+      <c r="J31">
+        <v>55</v>
+      </c>
+      <c r="K31">
+        <v>55</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32">
+        <v>22460</v>
+      </c>
+      <c r="C32">
+        <v>19500</v>
+      </c>
+      <c r="D32">
+        <v>2936</v>
+      </c>
+      <c r="E32">
+        <v>575</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>422</v>
+      </c>
+      <c r="H32">
+        <v>246</v>
+      </c>
+      <c r="I32">
+        <v>75</v>
+      </c>
+      <c r="J32">
+        <v>95</v>
+      </c>
+      <c r="K32">
+        <v>95</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>15</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33">
+        <v>2088</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1908</v>
+      </c>
+      <c r="E33">
+        <v>275</v>
+      </c>
+      <c r="F33">
+        <v>300</v>
+      </c>
+      <c r="G33">
+        <v>422</v>
+      </c>
+      <c r="H33">
+        <v>186</v>
+      </c>
+      <c r="I33">
+        <v>85</v>
+      </c>
+      <c r="J33">
+        <v>55</v>
+      </c>
+      <c r="K33">
+        <v>55</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34">
+        <v>21688</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2907</v>
+      </c>
+      <c r="E34">
+        <v>473</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>422</v>
+      </c>
+      <c r="H34">
+        <v>186</v>
+      </c>
+      <c r="I34">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <v>90</v>
+      </c>
+      <c r="L34">
+        <v>75</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35">
+        <v>3263</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1892</v>
+      </c>
+      <c r="E35">
+        <v>275</v>
+      </c>
+      <c r="F35">
+        <v>300</v>
+      </c>
+      <c r="G35">
+        <v>422</v>
+      </c>
+      <c r="H35">
+        <v>186</v>
+      </c>
+      <c r="I35">
+        <v>85</v>
+      </c>
+      <c r="J35">
+        <v>70</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>70</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36">
+        <v>27169</v>
+      </c>
+      <c r="C36">
+        <v>19500</v>
+      </c>
+      <c r="D36">
+        <v>2789</v>
+      </c>
+      <c r="E36">
+        <v>575</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>422</v>
+      </c>
+      <c r="H36">
+        <v>246</v>
+      </c>
+      <c r="I36">
+        <v>75</v>
+      </c>
+      <c r="J36">
+        <v>95</v>
+      </c>
+      <c r="K36">
+        <v>25</v>
+      </c>
+      <c r="L36">
+        <v>95</v>
+      </c>
+      <c r="M36">
+        <v>15</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37">
+        <v>2611</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1813</v>
+      </c>
+      <c r="E37">
+        <v>275</v>
+      </c>
+      <c r="F37">
+        <v>300</v>
+      </c>
+      <c r="G37">
+        <v>422</v>
+      </c>
+      <c r="H37">
+        <v>186</v>
+      </c>
+      <c r="I37">
+        <v>85</v>
+      </c>
+      <c r="J37">
+        <v>70</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>70</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12946A7-BB57-D54A-A3D2-AD25588950B5}">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>2205</v>
+      </c>
+      <c r="C2">
+        <v>398</v>
+      </c>
+      <c r="D2">
+        <v>1489</v>
+      </c>
+      <c r="E2">
+        <v>484</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>310</v>
+      </c>
+      <c r="H2">
+        <v>523</v>
+      </c>
+      <c r="I2">
+        <v>58</v>
+      </c>
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>98</v>
+      </c>
+      <c r="L2">
+        <v>75</v>
+      </c>
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>80</v>
+      </c>
+      <c r="O2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>2271</v>
+      </c>
+      <c r="C3">
+        <v>418</v>
+      </c>
+      <c r="D3">
+        <v>1564</v>
+      </c>
+      <c r="E3">
+        <v>532</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>324</v>
+      </c>
+      <c r="H3">
+        <v>555</v>
+      </c>
+      <c r="I3">
+        <v>58</v>
+      </c>
+      <c r="J3">
+        <v>75</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>98</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>80</v>
+      </c>
+      <c r="O3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>2332</v>
+      </c>
+      <c r="C4">
+        <v>437</v>
+      </c>
+      <c r="D4">
+        <v>1642</v>
+      </c>
+      <c r="E4">
+        <v>585</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>338</v>
+      </c>
+      <c r="H4">
+        <v>577</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>98</v>
+      </c>
+      <c r="K4">
+        <v>85</v>
+      </c>
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>90</v>
+      </c>
+      <c r="O4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>2027</v>
+      </c>
+      <c r="C5">
+        <v>388</v>
+      </c>
+      <c r="D5">
+        <v>1526</v>
+      </c>
+      <c r="E5">
+        <v>493</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>314</v>
+      </c>
+      <c r="H5">
+        <v>506</v>
+      </c>
+      <c r="I5">
+        <v>95</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5">
+        <v>90</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>4915</v>
+      </c>
+      <c r="C6">
+        <v>851</v>
+      </c>
+      <c r="D6">
+        <v>1775</v>
+      </c>
+      <c r="E6">
+        <v>608</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+      <c r="G6">
+        <v>322</v>
+      </c>
+      <c r="H6">
+        <v>727</v>
+      </c>
+      <c r="I6">
+        <v>127</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>98</v>
+      </c>
+      <c r="L6">
+        <v>85</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>98</v>
+      </c>
+      <c r="O6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>3214</v>
+      </c>
+      <c r="C7">
+        <v>492</v>
+      </c>
+      <c r="D7">
+        <v>1741</v>
+      </c>
+      <c r="E7">
+        <v>508</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>350</v>
+      </c>
+      <c r="H7">
+        <v>439</v>
+      </c>
+      <c r="I7">
+        <v>73</v>
+      </c>
+      <c r="J7">
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>98</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>95</v>
+      </c>
+      <c r="O7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>4755</v>
+      </c>
+      <c r="C8">
+        <v>1178</v>
+      </c>
+      <c r="D8">
+        <v>2089</v>
+      </c>
+      <c r="E8">
+        <v>544</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>375</v>
+      </c>
+      <c r="H8">
+        <v>490</v>
+      </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
+      <c r="J8">
+        <v>98</v>
+      </c>
+      <c r="K8">
+        <v>85</v>
+      </c>
+      <c r="L8">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>98</v>
+      </c>
+      <c r="N8">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>3180</v>
+      </c>
+      <c r="C9">
+        <v>507</v>
+      </c>
+      <c r="D9">
+        <v>1673</v>
+      </c>
+      <c r="E9">
+        <v>469</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>318</v>
+      </c>
+      <c r="H9">
+        <v>474</v>
+      </c>
+      <c r="I9">
+        <v>65</v>
+      </c>
+      <c r="J9">
+        <v>98</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>75</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>95</v>
+      </c>
+      <c r="O9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>1973</v>
+      </c>
+      <c r="C10">
+        <v>422</v>
+      </c>
+      <c r="D10">
+        <v>1583</v>
+      </c>
+      <c r="E10">
+        <v>587</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>336</v>
+      </c>
+      <c r="H10">
+        <v>610</v>
+      </c>
+      <c r="I10">
+        <v>62</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>70</v>
+      </c>
+      <c r="L10">
+        <v>70</v>
+      </c>
+      <c r="M10">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>50</v>
+      </c>
+      <c r="O10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>2040</v>
+      </c>
+      <c r="C11">
+        <v>446</v>
+      </c>
+      <c r="D11">
+        <v>1656</v>
+      </c>
+      <c r="E11">
+        <v>636</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>336</v>
+      </c>
+      <c r="H11">
+        <v>695</v>
+      </c>
+      <c r="I11">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>85</v>
+      </c>
+      <c r="L11">
+        <v>85</v>
+      </c>
+      <c r="M11">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>60</v>
+      </c>
+      <c r="O11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>4379</v>
+      </c>
+      <c r="C12">
+        <v>796</v>
+      </c>
+      <c r="D12">
+        <v>2047</v>
+      </c>
+      <c r="E12">
+        <v>491</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>338</v>
+      </c>
+      <c r="H12">
+        <v>577</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+      <c r="J12">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>85</v>
+      </c>
+      <c r="L12">
+        <v>98</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>98</v>
+      </c>
+      <c r="O12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>5693</v>
+      </c>
+      <c r="C13">
+        <v>1355</v>
+      </c>
+      <c r="D13">
+        <v>2109</v>
+      </c>
+      <c r="E13">
+        <v>515</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>350</v>
+      </c>
+      <c r="H13">
+        <v>635</v>
+      </c>
+      <c r="I13">
+        <v>73</v>
+      </c>
+      <c r="J13">
+        <v>90</v>
+      </c>
+      <c r="K13">
+        <v>45</v>
+      </c>
+      <c r="L13">
+        <v>98</v>
+      </c>
+      <c r="M13">
+        <v>98</v>
+      </c>
+      <c r="N13">
+        <v>80</v>
+      </c>
+      <c r="O13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>2663</v>
+      </c>
+      <c r="C14">
+        <v>607</v>
+      </c>
+      <c r="D14">
+        <v>1778</v>
+      </c>
+      <c r="E14">
+        <v>566</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>330</v>
+      </c>
+      <c r="H14">
+        <v>573</v>
+      </c>
+      <c r="I14">
+        <v>58</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>75</v>
+      </c>
+      <c r="L14">
+        <v>98</v>
+      </c>
+      <c r="M14">
+        <v>40</v>
+      </c>
+      <c r="N14">
+        <v>90</v>
+      </c>
+      <c r="O14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>2748</v>
+      </c>
+      <c r="C15">
+        <v>636</v>
+      </c>
+      <c r="D15">
+        <v>1878</v>
+      </c>
+      <c r="E15">
+        <v>605</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>340</v>
+      </c>
+      <c r="H15">
+        <v>583</v>
+      </c>
+      <c r="I15">
+        <v>58</v>
+      </c>
+      <c r="J15">
+        <v>75</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <v>98</v>
+      </c>
+      <c r="M15">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>90</v>
+      </c>
+      <c r="O15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>3594</v>
+      </c>
+      <c r="C16">
+        <v>802</v>
+      </c>
+      <c r="D16">
+        <v>2210</v>
+      </c>
+      <c r="E16">
+        <v>762</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>385</v>
+      </c>
+      <c r="H16">
+        <v>660</v>
+      </c>
+      <c r="I16">
+        <v>66</v>
+      </c>
+      <c r="J16">
+        <v>98</v>
+      </c>
+      <c r="K16">
+        <v>85</v>
+      </c>
+      <c r="L16">
+        <v>35</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>98</v>
+      </c>
+      <c r="O16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17">
+        <v>2361</v>
+      </c>
+      <c r="C17">
+        <v>577</v>
+      </c>
+      <c r="D17">
+        <v>2255</v>
+      </c>
+      <c r="E17">
+        <v>576</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>314</v>
+      </c>
+      <c r="H17">
+        <v>545</v>
+      </c>
+      <c r="I17">
+        <v>95</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>70</v>
+      </c>
+      <c r="L17">
+        <v>98</v>
+      </c>
+      <c r="M17">
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <v>70</v>
+      </c>
+      <c r="O17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>5725</v>
+      </c>
+      <c r="C18">
+        <v>1266</v>
+      </c>
+      <c r="D18">
+        <v>2622</v>
+      </c>
+      <c r="E18">
+        <v>711</v>
+      </c>
+      <c r="F18">
+        <v>3000</v>
+      </c>
+      <c r="G18">
+        <v>323</v>
+      </c>
+      <c r="H18">
+        <v>782</v>
+      </c>
+      <c r="I18">
+        <v>127</v>
+      </c>
+      <c r="J18">
+        <v>55</v>
+      </c>
+      <c r="K18">
+        <v>98</v>
+      </c>
+      <c r="L18">
+        <v>90</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>98</v>
+      </c>
+      <c r="O18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>2590</v>
+      </c>
+      <c r="C19">
+        <v>638</v>
+      </c>
+      <c r="D19">
+        <v>2087</v>
+      </c>
+      <c r="E19">
+        <v>485</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>298</v>
+      </c>
+      <c r="H19">
+        <v>509</v>
+      </c>
+      <c r="I19">
+        <v>58</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>60</v>
+      </c>
+      <c r="L19">
+        <v>75</v>
+      </c>
+      <c r="M19">
+        <v>60</v>
+      </c>
+      <c r="N19">
+        <v>98</v>
+      </c>
+      <c r="O19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>3515</v>
+      </c>
+      <c r="C20">
+        <v>1424</v>
+      </c>
+      <c r="D20">
+        <v>2504</v>
+      </c>
+      <c r="E20">
+        <v>519</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>536</v>
+      </c>
+      <c r="H20">
+        <v>534</v>
+      </c>
+      <c r="I20">
+        <v>93</v>
+      </c>
+      <c r="J20">
+        <v>65</v>
+      </c>
+      <c r="K20">
+        <v>80</v>
+      </c>
+      <c r="L20">
+        <v>25</v>
+      </c>
+      <c r="M20">
+        <v>60</v>
+      </c>
+      <c r="N20">
+        <v>98</v>
+      </c>
+      <c r="O20">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>2983</v>
+      </c>
+      <c r="C21">
+        <v>679</v>
+      </c>
+      <c r="D21">
+        <v>2395</v>
+      </c>
+      <c r="E21">
+        <v>567</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>391</v>
+      </c>
+      <c r="H21">
+        <v>544</v>
+      </c>
+      <c r="I21">
+        <v>77</v>
+      </c>
+      <c r="J21">
+        <v>75</v>
+      </c>
+      <c r="K21">
+        <v>40</v>
+      </c>
+      <c r="L21">
+        <v>98</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>98</v>
+      </c>
+      <c r="O21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>5827</v>
+      </c>
+      <c r="C22">
+        <v>1496</v>
+      </c>
+      <c r="D22">
+        <v>2843</v>
+      </c>
+      <c r="E22">
+        <v>606</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>418</v>
+      </c>
+      <c r="H22">
+        <v>572</v>
+      </c>
+      <c r="I22">
+        <v>82</v>
+      </c>
+      <c r="J22">
+        <v>98</v>
+      </c>
+      <c r="K22">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>90</v>
+      </c>
+      <c r="N22">
+        <v>90</v>
+      </c>
+      <c r="O22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>2418</v>
+      </c>
+      <c r="C23">
+        <v>643</v>
+      </c>
+      <c r="D23">
+        <v>2131</v>
+      </c>
+      <c r="E23">
+        <v>781</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>338</v>
+      </c>
+      <c r="H23">
+        <v>614</v>
+      </c>
+      <c r="I23">
+        <v>64</v>
+      </c>
+      <c r="J23">
+        <v>30</v>
+      </c>
+      <c r="K23">
+        <v>80</v>
+      </c>
+      <c r="L23">
+        <v>80</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>60</v>
+      </c>
+      <c r="O23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>2614</v>
+      </c>
+      <c r="C24">
+        <v>672</v>
+      </c>
+      <c r="D24">
+        <v>2249</v>
+      </c>
+      <c r="E24">
+        <v>835</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>338</v>
+      </c>
+      <c r="H24">
+        <v>702</v>
+      </c>
+      <c r="I24">
+        <v>69</v>
+      </c>
+      <c r="J24">
+        <v>35</v>
+      </c>
+      <c r="K24">
+        <v>95</v>
+      </c>
+      <c r="L24">
+        <v>95</v>
+      </c>
+      <c r="M24">
+        <v>40</v>
+      </c>
+      <c r="N24">
+        <v>70</v>
+      </c>
+      <c r="O24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25">
+        <v>7681</v>
+      </c>
+      <c r="C25">
+        <v>788</v>
+      </c>
+      <c r="D25">
+        <v>2339</v>
+      </c>
+      <c r="E25">
+        <v>589</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>384</v>
+      </c>
+      <c r="H25">
+        <v>464</v>
+      </c>
+      <c r="I25">
+        <v>56</v>
+      </c>
+      <c r="J25">
+        <v>75</v>
+      </c>
+      <c r="K25">
+        <v>98</v>
+      </c>
+      <c r="L25">
+        <v>35</v>
+      </c>
+      <c r="M25">
+        <v>20</v>
+      </c>
+      <c r="N25">
+        <v>98</v>
+      </c>
+      <c r="O25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26">
+        <v>17595</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3939</v>
+      </c>
+      <c r="E26">
+        <v>935</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>555</v>
+      </c>
+      <c r="H26">
+        <v>270</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>98</v>
+      </c>
+      <c r="K26">
+        <v>85</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27">
+        <v>2835</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2600</v>
+      </c>
+      <c r="E27">
+        <v>1200</v>
+      </c>
+      <c r="F27">
+        <v>2400</v>
+      </c>
+      <c r="G27">
+        <v>555</v>
+      </c>
+      <c r="H27">
+        <v>270</v>
+      </c>
+      <c r="I27">
+        <v>90</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>65</v>
+      </c>
+      <c r="L27">
+        <v>65</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28">
+        <v>26393</v>
+      </c>
+      <c r="C28">
+        <v>61750</v>
+      </c>
+      <c r="D28">
+        <v>4410</v>
+      </c>
+      <c r="E28">
+        <v>1076</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>555</v>
+      </c>
+      <c r="H28">
+        <v>828</v>
+      </c>
+      <c r="I28">
+        <v>75</v>
+      </c>
+      <c r="J28">
+        <v>98</v>
+      </c>
+      <c r="K28">
+        <v>35</v>
+      </c>
+      <c r="L28">
+        <v>98</v>
+      </c>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29">
+        <v>2268</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2600</v>
+      </c>
+      <c r="E29">
+        <v>1200</v>
+      </c>
+      <c r="F29">
+        <v>2400</v>
+      </c>
+      <c r="G29">
+        <v>555</v>
+      </c>
+      <c r="H29">
+        <v>270</v>
+      </c>
+      <c r="I29">
+        <v>90</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>65</v>
+      </c>
+      <c r="L29">
+        <v>65</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30">
+        <v>21114</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>4136</v>
+      </c>
+      <c r="E30">
+        <v>935</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>555</v>
+      </c>
+      <c r="H30">
+        <v>270</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <v>98</v>
+      </c>
+      <c r="M30">
+        <v>15</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31">
+        <v>3402</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2730</v>
+      </c>
+      <c r="E31">
+        <v>1200</v>
+      </c>
+      <c r="F31">
+        <v>2400</v>
+      </c>
+      <c r="G31">
+        <v>555</v>
+      </c>
+      <c r="H31">
+        <v>270</v>
+      </c>
+      <c r="I31">
+        <v>90</v>
+      </c>
+      <c r="J31">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>65</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32">
+        <v>27945</v>
+      </c>
+      <c r="C32">
+        <v>61750</v>
+      </c>
+      <c r="D32">
+        <v>4631</v>
+      </c>
+      <c r="E32">
+        <v>1076</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>555</v>
+      </c>
+      <c r="H32">
+        <v>828</v>
+      </c>
+      <c r="I32">
+        <v>75</v>
+      </c>
+      <c r="J32">
+        <v>98</v>
+      </c>
+      <c r="K32">
+        <v>98</v>
+      </c>
+      <c r="L32">
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33">
+        <v>2722</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>2730</v>
+      </c>
+      <c r="E33">
+        <v>1200</v>
+      </c>
+      <c r="F33">
+        <v>2400</v>
+      </c>
+      <c r="G33">
+        <v>555</v>
+      </c>
+      <c r="H33">
+        <v>270</v>
+      </c>
+      <c r="I33">
+        <v>90</v>
+      </c>
+      <c r="J33">
+        <v>65</v>
+      </c>
+      <c r="K33">
+        <v>65</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34">
+        <v>24840</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3929</v>
+      </c>
+      <c r="E34">
+        <v>935</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>555</v>
+      </c>
+      <c r="H34">
+        <v>270</v>
+      </c>
+      <c r="I34">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>98</v>
+      </c>
+      <c r="L34">
+        <v>85</v>
+      </c>
+      <c r="M34">
+        <v>15</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35">
+        <v>4253</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2594</v>
+      </c>
+      <c r="E35">
+        <v>1200</v>
+      </c>
+      <c r="F35">
+        <v>2400</v>
+      </c>
+      <c r="G35">
+        <v>555</v>
+      </c>
+      <c r="H35">
+        <v>270</v>
+      </c>
+      <c r="I35">
+        <v>90</v>
+      </c>
+      <c r="J35">
+        <v>80</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>80</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36">
+        <v>31438</v>
+      </c>
+      <c r="C36">
+        <v>61750</v>
+      </c>
+      <c r="D36">
+        <v>4399</v>
+      </c>
+      <c r="E36">
+        <v>1076</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>555</v>
+      </c>
+      <c r="H36">
+        <v>828</v>
+      </c>
+      <c r="I36">
+        <v>75</v>
+      </c>
+      <c r="J36">
+        <v>98</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+      <c r="L36">
+        <v>98</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37">
+        <v>3403</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2594</v>
+      </c>
+      <c r="E37">
+        <v>1200</v>
+      </c>
+      <c r="F37">
+        <v>2400</v>
+      </c>
+      <c r="G37">
+        <v>555</v>
+      </c>
+      <c r="H37">
+        <v>270</v>
+      </c>
+      <c r="I37">
+        <v>90</v>
+      </c>
+      <c r="J37">
+        <v>80</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>80</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
         <v>100</v>
       </c>
     </row>
@@ -15226,7 +20756,7 @@
       <c r="B33">
         <v>1560</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>154</v>
       </c>
       <c r="D33">
@@ -15273,7 +20803,7 @@
       <c r="B34">
         <v>1720</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>157</v>
       </c>
       <c r="D34">
@@ -15317,10 +20847,10 @@
       <c r="A35" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>1627</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>146</v>
       </c>
       <c r="D35">
@@ -15364,10 +20894,10 @@
       <c r="A36" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>1453</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>153</v>
       </c>
       <c r="D36">
@@ -15411,10 +20941,10 @@
       <c r="A37" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>1866</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>163</v>
       </c>
       <c r="D37">
@@ -15458,10 +20988,10 @@
       <c r="A38" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>789</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>84</v>
       </c>
       <c r="D38">
@@ -15505,10 +21035,10 @@
       <c r="A39" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>833</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>91</v>
       </c>
       <c r="D39">
@@ -15552,10 +21082,10 @@
       <c r="A40" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>1161</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>114</v>
       </c>
       <c r="D40">
@@ -15599,10 +21129,10 @@
       <c r="A41" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>1274</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>120</v>
       </c>
       <c r="D41">
@@ -15646,10 +21176,10 @@
       <c r="A42" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>816</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>98</v>
       </c>
       <c r="D42">
@@ -15693,10 +21223,10 @@
       <c r="A43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>749</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>97</v>
       </c>
       <c r="D43">
@@ -15740,10 +21270,10 @@
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>1228</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>71</v>
       </c>
       <c r="D44">
@@ -15787,10 +21317,10 @@
       <c r="A45" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>490</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>54</v>
       </c>
       <c r="D45">
@@ -15834,10 +21364,10 @@
       <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>2071</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>131</v>
       </c>
       <c r="D46">
@@ -15881,10 +21411,10 @@
       <c r="A47" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>1853</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>150</v>
       </c>
       <c r="D47">
@@ -15928,10 +21458,10 @@
       <c r="A48" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>1348</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>85</v>
       </c>
       <c r="D48">
@@ -15975,10 +21505,10 @@
       <c r="A49" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>3715</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>150</v>
       </c>
       <c r="D49">
@@ -16022,10 +21552,10 @@
       <c r="A50" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>3200</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>2860</v>
       </c>
       <c r="D50">
@@ -16069,10 +21599,10 @@
       <c r="A51" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>5900</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>3510</v>
       </c>
       <c r="D51">
@@ -16116,10 +21646,10 @@
       <c r="A52" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>9500</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>3900</v>
       </c>
       <c r="D52">
@@ -16163,10 +21693,10 @@
       <c r="A53" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>6300</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
@@ -16210,10 +21740,10 @@
       <c r="A54" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>6300</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>7670</v>
       </c>
       <c r="D54">
@@ -16257,10 +21787,10 @@
       <c r="A55" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>150</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
@@ -16304,10 +21834,10 @@
       <c r="A56" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>830</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
@@ -18997,7 +24527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83906D12-3E66-BF4C-B553-BA2801FBF0D0}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -21638,4 +27168,1774 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE8C22B-6027-DB47-9E03-B3DD65752CFE}">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>119</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>153</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>110</v>
+      </c>
+      <c r="H2">
+        <v>92</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>137</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>168</v>
+      </c>
+      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>120</v>
+      </c>
+      <c r="H3">
+        <v>104</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>163</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>185</v>
+      </c>
+      <c r="E4">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>130</v>
+      </c>
+      <c r="H4">
+        <v>112</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>75</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>25</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>113</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>161</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>109</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>447</v>
+      </c>
+      <c r="C6">
+        <v>172</v>
+      </c>
+      <c r="D6">
+        <v>237</v>
+      </c>
+      <c r="E6">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+      <c r="G6">
+        <v>112</v>
+      </c>
+      <c r="H6">
+        <v>157</v>
+      </c>
+      <c r="I6">
+        <v>77</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>75</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>390</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>232</v>
+      </c>
+      <c r="E7">
+        <v>63</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+      <c r="H7">
+        <v>71</v>
+      </c>
+      <c r="I7">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>60</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>819</v>
+      </c>
+      <c r="C8">
+        <v>337</v>
+      </c>
+      <c r="D8">
+        <v>279</v>
+      </c>
+      <c r="E8">
+        <v>67</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>161</v>
+      </c>
+      <c r="H8">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>75</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>374</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>230</v>
+      </c>
+      <c r="E9">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>151</v>
+      </c>
+      <c r="H9">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>145</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>174</v>
+      </c>
+      <c r="E10">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>134</v>
+      </c>
+      <c r="H10">
+        <v>132</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>202</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>191</v>
+      </c>
+      <c r="E11">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>136</v>
+      </c>
+      <c r="H11">
+        <v>163</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>1369</v>
+      </c>
+      <c r="C12">
+        <v>73</v>
+      </c>
+      <c r="D12">
+        <v>273</v>
+      </c>
+      <c r="E12">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>130</v>
+      </c>
+      <c r="H12">
+        <v>112</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>75</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>50</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>1780</v>
+      </c>
+      <c r="C13">
+        <v>388</v>
+      </c>
+      <c r="D13">
+        <v>282</v>
+      </c>
+      <c r="E13">
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>150</v>
+      </c>
+      <c r="H13">
+        <v>123</v>
+      </c>
+      <c r="I13">
+        <v>21</v>
+      </c>
+      <c r="J13">
+        <v>70</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>90</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>30</v>
+      </c>
+      <c r="O13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>320</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>324</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>115</v>
+      </c>
+      <c r="H14">
+        <v>113</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>60</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="O14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>351</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>361</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>125</v>
+      </c>
+      <c r="H15">
+        <v>116</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>60</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>30</v>
+      </c>
+      <c r="O15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>459</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>425</v>
+      </c>
+      <c r="E16">
+        <v>106</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>149</v>
+      </c>
+      <c r="H16">
+        <v>132</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>75</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17">
+        <v>283</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>390</v>
+      </c>
+      <c r="E17">
+        <v>76</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>109</v>
+      </c>
+      <c r="H17">
+        <v>107</v>
+      </c>
+      <c r="I17">
+        <v>45</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>60</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>1414</v>
+      </c>
+      <c r="C18">
+        <v>316</v>
+      </c>
+      <c r="D18">
+        <v>577</v>
+      </c>
+      <c r="E18">
+        <v>113</v>
+      </c>
+      <c r="F18">
+        <v>120</v>
+      </c>
+      <c r="G18">
+        <v>113</v>
+      </c>
+      <c r="H18">
+        <v>194</v>
+      </c>
+      <c r="I18">
+        <v>77</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>60</v>
+      </c>
+      <c r="O18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>331</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>361</v>
+      </c>
+      <c r="E19">
+        <v>64</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>104</v>
+      </c>
+      <c r="H19">
+        <v>96</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+      <c r="O19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>563</v>
+      </c>
+      <c r="C20">
+        <v>454</v>
+      </c>
+      <c r="D20">
+        <v>506</v>
+      </c>
+      <c r="E20">
+        <v>69</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>187</v>
+      </c>
+      <c r="H20">
+        <v>101</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>95</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>55</v>
+      </c>
+      <c r="O20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>521</v>
+      </c>
+      <c r="C21">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>455</v>
+      </c>
+      <c r="E21">
+        <v>92</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>171</v>
+      </c>
+      <c r="H21">
+        <v>103</v>
+      </c>
+      <c r="I21">
+        <v>22</v>
+      </c>
+      <c r="J21">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>70</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>40</v>
+      </c>
+      <c r="O21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>1439</v>
+      </c>
+      <c r="C22">
+        <v>477</v>
+      </c>
+      <c r="D22">
+        <v>600</v>
+      </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>182</v>
+      </c>
+      <c r="H22">
+        <v>108</v>
+      </c>
+      <c r="I22">
+        <v>24</v>
+      </c>
+      <c r="J22">
+        <v>90</v>
+      </c>
+      <c r="K22">
+        <v>60</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>45</v>
+      </c>
+      <c r="N22">
+        <v>40</v>
+      </c>
+      <c r="O22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>314</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>371</v>
+      </c>
+      <c r="E23">
+        <v>99</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>142</v>
+      </c>
+      <c r="H23">
+        <v>138</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>40</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>15</v>
+      </c>
+      <c r="O23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>362</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>389</v>
+      </c>
+      <c r="E24">
+        <v>104</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>146</v>
+      </c>
+      <c r="H24">
+        <v>167</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
+      </c>
+      <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>45</v>
+      </c>
+      <c r="L24">
+        <v>45</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>20</v>
+      </c>
+      <c r="O24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25">
+        <v>2319</v>
+      </c>
+      <c r="C25">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>420</v>
+      </c>
+      <c r="E25">
+        <v>72</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>124</v>
+      </c>
+      <c r="H25">
+        <v>80</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>60</v>
+      </c>
+      <c r="L25">
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>50</v>
+      </c>
+      <c r="O25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26">
+        <v>6930</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1100</v>
+      </c>
+      <c r="E26">
+        <v>225</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>270</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>75</v>
+      </c>
+      <c r="K26">
+        <v>50</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27">
+        <v>1125</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>500</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+      <c r="F27">
+        <v>300</v>
+      </c>
+      <c r="G27">
+        <v>270</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>75</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>35</v>
+      </c>
+      <c r="L27">
+        <v>35</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28">
+        <v>9775</v>
+      </c>
+      <c r="C28">
+        <v>4290</v>
+      </c>
+      <c r="D28">
+        <v>1155</v>
+      </c>
+      <c r="E28">
+        <v>277</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>270</v>
+      </c>
+      <c r="H28">
+        <v>144</v>
+      </c>
+      <c r="I28">
+        <v>75</v>
+      </c>
+      <c r="J28">
+        <v>75</v>
+      </c>
+      <c r="K28">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>75</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29">
+        <v>900</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>750</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>300</v>
+      </c>
+      <c r="G29">
+        <v>270</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>75</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>35</v>
+      </c>
+      <c r="L29">
+        <v>35</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30">
+        <v>8316</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1320</v>
+      </c>
+      <c r="E30">
+        <v>225</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>270</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>75</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31">
+        <v>1350</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>600</v>
+      </c>
+      <c r="E31">
+        <v>120</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>270</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>75</v>
+      </c>
+      <c r="J31">
+        <v>35</v>
+      </c>
+      <c r="K31">
+        <v>35</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32">
+        <v>11730</v>
+      </c>
+      <c r="C32">
+        <v>4290</v>
+      </c>
+      <c r="D32">
+        <v>1386</v>
+      </c>
+      <c r="E32">
+        <v>277</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>270</v>
+      </c>
+      <c r="H32">
+        <v>144</v>
+      </c>
+      <c r="I32">
+        <v>75</v>
+      </c>
+      <c r="J32">
+        <v>75</v>
+      </c>
+      <c r="K32">
+        <v>75</v>
+      </c>
+      <c r="L32">
+        <v>15</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33">
+        <v>1080</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>900</v>
+      </c>
+      <c r="E33">
+        <v>120</v>
+      </c>
+      <c r="F33">
+        <v>300</v>
+      </c>
+      <c r="G33">
+        <v>270</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>75</v>
+      </c>
+      <c r="J33">
+        <v>35</v>
+      </c>
+      <c r="K33">
+        <v>35</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34">
+        <v>10395</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1254</v>
+      </c>
+      <c r="E34">
+        <v>225</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>270</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>75</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35">
+        <v>1688</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>570</v>
+      </c>
+      <c r="E35">
+        <v>120</v>
+      </c>
+      <c r="F35">
+        <v>300</v>
+      </c>
+      <c r="G35">
+        <v>270</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>75</v>
+      </c>
+      <c r="J35">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>50</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36">
+        <v>14663</v>
+      </c>
+      <c r="C36">
+        <v>4290</v>
+      </c>
+      <c r="D36">
+        <v>1317</v>
+      </c>
+      <c r="E36">
+        <v>277</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>270</v>
+      </c>
+      <c r="H36">
+        <v>144</v>
+      </c>
+      <c r="I36">
+        <v>75</v>
+      </c>
+      <c r="J36">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <v>75</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37">
+        <v>1351</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>855</v>
+      </c>
+      <c r="E37">
+        <v>120</v>
+      </c>
+      <c r="F37">
+        <v>300</v>
+      </c>
+      <c r="G37">
+        <v>270</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>75</v>
+      </c>
+      <c r="J37">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/projects/pso/PSO_Enemy.xlsx
+++ b/projects/pso/PSO_Enemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johndellarosa/Github/johndellarosa.github.io/projects/pso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04927020-26BC-9241-9C3B-1EE93D37F94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35AB158-A65C-3F4B-9151-CE3D9591A45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12560" yWindow="500" windowWidth="21040" windowHeight="18680" firstSheet="3" activeTab="11" xr2:uid="{A19BC9D2-BC35-874F-8916-558C82066E38}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{AF9D4C63-8038-104C-BBF6-5609176B16A9}" name="Ep4 Hard" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Hard" tab="0" comma="1">
+    <textPr sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Hard" tab="0" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -76,7 +76,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{06317BDA-417D-6740-B669-A0A8FC2DE7C1}" name="Ep4 Normal" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Normal" tab="0" comma="1">
+    <textPr sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Normal" tab="0" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -97,7 +97,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{60604914-FA23-9A44-911D-5D6363228B64}" name="Ep4 Ultimate" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Ultimate" comma="1">
+    <textPr sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Ultimate" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -118,7 +118,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{D2735A56-D612-C246-92D3-B56A92086F63}" name="Ep4 Very Hard" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Very Hard" comma="1">
+    <textPr sourceFile="/Users/johndellarosa/Projects/Untitled Folder/Ep4 Very Hard" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -559,7 +559,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -575,6 +575,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -584,7 +592,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -592,13 +600,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3485,7 +3511,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection sqref="A1:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3507,54 +3533,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B2">
@@ -3582,26 +3608,26 @@
         <v>23</v>
       </c>
       <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>70</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>35</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>20</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>40</v>
       </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B3">
@@ -3629,26 +3655,26 @@
         <v>23</v>
       </c>
       <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
         <v>35</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>70</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>40</v>
       </c>
-      <c r="O3">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B4">
@@ -3676,26 +3702,26 @@
         <v>25</v>
       </c>
       <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
         <v>80</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>55</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>50</v>
       </c>
-      <c r="O4">
-        <v>20</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B5">
@@ -3723,26 +3749,26 @@
         <v>60</v>
       </c>
       <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>30</v>
-      </c>
       <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
         <v>60</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>20</v>
       </c>
-      <c r="N5">
-        <v>30</v>
-      </c>
       <c r="O5">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B6">
@@ -3770,26 +3796,26 @@
         <v>92</v>
       </c>
       <c r="J6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
         <v>80</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>60</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>75</v>
       </c>
-      <c r="O6">
-        <v>31</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B7">
@@ -3817,26 +3843,26 @@
         <v>37</v>
       </c>
       <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
         <v>40</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>80</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>10</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>60</v>
       </c>
-      <c r="O7">
-        <v>19</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B8">
@@ -3864,26 +3890,26 @@
         <v>39</v>
       </c>
       <c r="J8">
+        <v>21</v>
+      </c>
+      <c r="K8">
         <v>80</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>60</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>20</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>75</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>45</v>
       </c>
-      <c r="O8">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B9">
@@ -3911,26 +3937,26 @@
         <v>35</v>
       </c>
       <c r="J9">
+        <v>35</v>
+      </c>
+      <c r="K9">
         <v>80</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>10</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>40</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>10</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>60</v>
       </c>
-      <c r="O9">
-        <v>35</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B10">
@@ -3958,26 +3984,26 @@
         <v>28</v>
       </c>
       <c r="J10">
+        <v>21</v>
+      </c>
+      <c r="K10">
         <v>10</v>
-      </c>
-      <c r="K10">
-        <v>45</v>
       </c>
       <c r="L10">
         <v>45</v>
       </c>
       <c r="M10">
+        <v>45</v>
+      </c>
+      <c r="N10">
         <v>20</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>15</v>
       </c>
-      <c r="O10">
-        <v>21</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B11">
@@ -4005,26 +4031,26 @@
         <v>32</v>
       </c>
       <c r="J11">
+        <v>22</v>
+      </c>
+      <c r="K11">
         <v>15</v>
-      </c>
-      <c r="K11">
-        <v>60</v>
       </c>
       <c r="L11">
         <v>60</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N11">
         <v>20</v>
       </c>
       <c r="O11">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B12">
@@ -4052,26 +4078,26 @@
         <v>25</v>
       </c>
       <c r="J12">
+        <v>19</v>
+      </c>
+      <c r="K12">
         <v>20</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>60</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>80</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>10</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>75</v>
       </c>
-      <c r="O12">
-        <v>19</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B13">
@@ -4099,26 +4125,26 @@
         <v>37</v>
       </c>
       <c r="J13">
+        <v>22</v>
+      </c>
+      <c r="K13">
         <v>75</v>
       </c>
-      <c r="K13">
-        <v>30</v>
-      </c>
       <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
         <v>95</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>75</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>45</v>
       </c>
-      <c r="O13">
-        <v>22</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B14">
@@ -4146,26 +4172,26 @@
         <v>23</v>
       </c>
       <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
         <v>15</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>40</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>70</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>20</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>50</v>
       </c>
-      <c r="O14">
-        <v>20</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B15">
@@ -4193,26 +4219,26 @@
         <v>23</v>
       </c>
       <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15">
         <v>40</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>15</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>70</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>20</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>50</v>
       </c>
-      <c r="O15">
-        <v>30</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B16">
@@ -4240,26 +4266,26 @@
         <v>28</v>
       </c>
       <c r="J16">
+        <v>34</v>
+      </c>
+      <c r="K16">
         <v>80</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>60</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>20</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>10</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>60</v>
       </c>
-      <c r="O16">
-        <v>34</v>
-      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B17">
@@ -4287,26 +4313,26 @@
         <v>60</v>
       </c>
       <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17">
         <v>15</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>35</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>70</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>20</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>40</v>
       </c>
-      <c r="O17">
-        <v>30</v>
-      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B18">
@@ -4334,26 +4360,26 @@
         <v>92</v>
       </c>
       <c r="J18">
+        <v>31</v>
+      </c>
+      <c r="K18">
         <v>35</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>90</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>70</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>5</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>85</v>
       </c>
-      <c r="O18">
-        <v>31</v>
-      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B19">
@@ -4381,26 +4407,26 @@
         <v>23</v>
       </c>
       <c r="J19">
+        <v>23</v>
+      </c>
+      <c r="K19">
         <v>10</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>80</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>25</v>
       </c>
-      <c r="M19">
-        <v>30</v>
-      </c>
       <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="O19">
         <v>75</v>
       </c>
-      <c r="O19">
-        <v>23</v>
-      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B20">
@@ -4428,26 +4454,26 @@
         <v>37</v>
       </c>
       <c r="J20">
+        <v>23</v>
+      </c>
+      <c r="K20">
         <v>85</v>
       </c>
-      <c r="K20">
-        <v>30</v>
-      </c>
       <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
         <v>10</v>
       </c>
-      <c r="M20">
-        <v>30</v>
-      </c>
       <c r="N20">
+        <v>30</v>
+      </c>
+      <c r="O20">
         <v>80</v>
       </c>
-      <c r="O20">
-        <v>23</v>
-      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B21">
@@ -4475,26 +4501,26 @@
         <v>39</v>
       </c>
       <c r="J21">
+        <v>33</v>
+      </c>
+      <c r="K21">
         <v>45</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>25</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>80</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>10</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>70</v>
       </c>
-      <c r="O21">
-        <v>33</v>
-      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B22">
@@ -4522,26 +4548,26 @@
         <v>41</v>
       </c>
       <c r="J22">
+        <v>31</v>
+      </c>
+      <c r="K22">
         <v>95</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>70</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>25</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>60</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>55</v>
       </c>
-      <c r="O22">
-        <v>31</v>
-      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B23">
@@ -4569,26 +4595,26 @@
         <v>29</v>
       </c>
       <c r="J23">
+        <v>31</v>
+      </c>
+      <c r="K23">
         <v>15</v>
-      </c>
-      <c r="K23">
-        <v>50</v>
       </c>
       <c r="L23">
         <v>50</v>
       </c>
       <c r="M23">
+        <v>50</v>
+      </c>
+      <c r="N23">
         <v>20</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>25</v>
       </c>
-      <c r="O23">
-        <v>31</v>
-      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B24">
@@ -4616,26 +4642,26 @@
         <v>33</v>
       </c>
       <c r="J24">
+        <v>32</v>
+      </c>
+      <c r="K24">
         <v>20</v>
-      </c>
-      <c r="K24">
-        <v>55</v>
       </c>
       <c r="L24">
         <v>55</v>
       </c>
       <c r="M24">
+        <v>55</v>
+      </c>
+      <c r="N24">
         <v>20</v>
       </c>
-      <c r="N24">
-        <v>30</v>
-      </c>
       <c r="O24">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B25">
@@ -4663,26 +4689,26 @@
         <v>23</v>
       </c>
       <c r="J25">
+        <v>33</v>
+      </c>
+      <c r="K25">
         <v>40</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>80</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>20</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>10</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>75</v>
       </c>
-      <c r="O25">
-        <v>33</v>
-      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B26">
@@ -4710,30 +4736,30 @@
         <v>25</v>
       </c>
       <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
         <v>80</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>60</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>10</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>5</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
       <c r="O26">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B27">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4757,26 +4783,26 @@
         <v>75</v>
       </c>
       <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
         <v>5</v>
-      </c>
-      <c r="K27">
-        <v>45</v>
       </c>
       <c r="L27">
         <v>45</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B28">
@@ -4804,30 +4830,30 @@
         <v>75</v>
       </c>
       <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
         <v>85</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>20</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>85</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>10</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
       <c r="O28">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B29">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4851,26 +4877,26 @@
         <v>75</v>
       </c>
       <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
         <v>5</v>
-      </c>
-      <c r="K29">
-        <v>45</v>
       </c>
       <c r="L29">
         <v>45</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B30">
@@ -4898,26 +4924,26 @@
         <v>25</v>
       </c>
       <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
         <v>60</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>10</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>80</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>5</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
       <c r="O30">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B31">
@@ -4945,26 +4971,26 @@
         <v>75</v>
       </c>
       <c r="J31">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K31">
         <v>45</v>
       </c>
       <c r="L31">
+        <v>45</v>
+      </c>
+      <c r="M31">
         <v>5</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B32">
@@ -4992,26 +5018,26 @@
         <v>75</v>
       </c>
       <c r="J32">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>85</v>
       </c>
       <c r="L32">
+        <v>85</v>
+      </c>
+      <c r="M32">
         <v>20</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>10</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
       <c r="O32">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B33">
@@ -5039,26 +5065,26 @@
         <v>75</v>
       </c>
       <c r="J33">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K33">
         <v>45</v>
       </c>
       <c r="L33">
+        <v>45</v>
+      </c>
+      <c r="M33">
         <v>5</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B34">
@@ -5086,26 +5112,26 @@
         <v>25</v>
       </c>
       <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
         <v>10</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>80</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>60</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>5</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
       <c r="O34">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B35">
@@ -5133,26 +5159,26 @@
         <v>75</v>
       </c>
       <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
         <v>60</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>5</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>60</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B36">
@@ -5180,30 +5206,30 @@
         <v>75</v>
       </c>
       <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
         <v>85</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>20</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>85</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>10</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
       <c r="O36">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B37">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5227,22 +5253,22 @@
         <v>75</v>
       </c>
       <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
         <v>60</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>60</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5255,76 +5281,60 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B2">
@@ -5352,26 +5362,26 @@
         <v>38</v>
       </c>
       <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
         <v>15</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>90</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>45</v>
       </c>
-      <c r="M2">
-        <v>30</v>
-      </c>
       <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
         <v>60</v>
       </c>
-      <c r="O2">
-        <v>35</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B3">
@@ -5399,26 +5409,26 @@
         <v>38</v>
       </c>
       <c r="J3">
+        <v>35</v>
+      </c>
+      <c r="K3">
         <v>45</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>15</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>90</v>
       </c>
-      <c r="M3">
-        <v>30</v>
-      </c>
       <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3">
         <v>60</v>
       </c>
-      <c r="O3">
-        <v>35</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B4">
@@ -5446,26 +5456,26 @@
         <v>40</v>
       </c>
       <c r="J4">
+        <v>35</v>
+      </c>
+      <c r="K4">
         <v>95</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>75</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>15</v>
       </c>
-      <c r="M4">
-        <v>30</v>
-      </c>
       <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
         <v>70</v>
       </c>
-      <c r="O4">
-        <v>35</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B5">
@@ -5493,26 +5503,26 @@
         <v>75</v>
       </c>
       <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>40</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>80</v>
       </c>
-      <c r="M5">
-        <v>30</v>
-      </c>
       <c r="N5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="O5">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B6">
@@ -5540,26 +5550,26 @@
         <v>107</v>
       </c>
       <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6">
         <v>40</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>95</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>75</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>90</v>
       </c>
-      <c r="O6">
-        <v>32</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B7">
@@ -5587,26 +5597,26 @@
         <v>52</v>
       </c>
       <c r="J7">
+        <v>32</v>
+      </c>
+      <c r="K7">
         <v>50</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>25</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>90</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>15</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>80</v>
       </c>
-      <c r="O7">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B8">
@@ -5634,26 +5644,26 @@
         <v>56</v>
       </c>
       <c r="J8">
+        <v>36</v>
+      </c>
+      <c r="K8">
         <v>90</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>75</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>25</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>90</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>60</v>
       </c>
-      <c r="O8">
-        <v>36</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B9">
@@ -5681,26 +5691,26 @@
         <v>45</v>
       </c>
       <c r="J9">
+        <v>45</v>
+      </c>
+      <c r="K9">
         <v>95</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>15</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>50</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>15</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>80</v>
       </c>
-      <c r="O9">
-        <v>45</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B10">
@@ -5728,26 +5738,26 @@
         <v>46</v>
       </c>
       <c r="J10">
+        <v>36</v>
+      </c>
+      <c r="K10">
         <v>15</v>
-      </c>
-      <c r="K10">
-        <v>60</v>
       </c>
       <c r="L10">
         <v>60</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
         <v>25</v>
       </c>
-      <c r="O10">
-        <v>36</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B11">
@@ -5775,26 +5785,26 @@
         <v>52</v>
       </c>
       <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="K11">
         <v>20</v>
-      </c>
-      <c r="K11">
-        <v>75</v>
       </c>
       <c r="L11">
         <v>75</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N11">
         <v>30</v>
       </c>
       <c r="O11">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B12">
@@ -5822,26 +5832,26 @@
         <v>40</v>
       </c>
       <c r="J12">
+        <v>32</v>
+      </c>
+      <c r="K12">
         <v>25</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>75</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>90</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>15</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>90</v>
       </c>
-      <c r="O12">
-        <v>32</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B13">
@@ -5869,26 +5879,26 @@
         <v>52</v>
       </c>
       <c r="J13">
+        <v>38</v>
+      </c>
+      <c r="K13">
         <v>80</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>35</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>95</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>90</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>60</v>
       </c>
-      <c r="O13">
-        <v>38</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B14">
@@ -5919,23 +5929,23 @@
         <v>20</v>
       </c>
       <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
         <v>50</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>80</v>
       </c>
-      <c r="M14">
-        <v>30</v>
-      </c>
       <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="O14">
         <v>70</v>
       </c>
-      <c r="O14">
-        <v>20</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B15">
@@ -5963,26 +5973,26 @@
         <v>38</v>
       </c>
       <c r="J15">
+        <v>31</v>
+      </c>
+      <c r="K15">
         <v>50</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>20</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>80</v>
       </c>
-      <c r="M15">
-        <v>30</v>
-      </c>
       <c r="N15">
+        <v>30</v>
+      </c>
+      <c r="O15">
         <v>70</v>
       </c>
-      <c r="O15">
-        <v>31</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B16">
@@ -6010,26 +6020,26 @@
         <v>44</v>
       </c>
       <c r="J16">
+        <v>32</v>
+      </c>
+      <c r="K16">
         <v>90</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>75</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>25</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>15</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>80</v>
       </c>
-      <c r="O16">
-        <v>32</v>
-      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B17">
@@ -6057,26 +6067,26 @@
         <v>75</v>
       </c>
       <c r="J17">
+        <v>45</v>
+      </c>
+      <c r="K17">
         <v>20</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>45</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>90</v>
       </c>
-      <c r="M17">
-        <v>30</v>
-      </c>
       <c r="N17">
+        <v>30</v>
+      </c>
+      <c r="O17">
         <v>55</v>
       </c>
-      <c r="O17">
-        <v>45</v>
-      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B18">
@@ -6104,26 +6114,26 @@
         <v>107</v>
       </c>
       <c r="J18">
+        <v>32</v>
+      </c>
+      <c r="K18">
         <v>45</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>95</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>80</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>10</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>98</v>
       </c>
-      <c r="O18">
-        <v>32</v>
-      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B19">
@@ -6151,26 +6161,26 @@
         <v>38</v>
       </c>
       <c r="J19">
+        <v>38</v>
+      </c>
+      <c r="K19">
         <v>15</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>70</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>50</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>45</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>98</v>
       </c>
-      <c r="O19">
-        <v>38</v>
-      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B20">
@@ -6198,26 +6208,26 @@
         <v>61</v>
       </c>
       <c r="J20">
+        <v>38</v>
+      </c>
+      <c r="K20">
         <v>75</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>60</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>15</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>45</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>98</v>
       </c>
-      <c r="O20">
-        <v>38</v>
-      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B21">
@@ -6245,26 +6255,26 @@
         <v>55</v>
       </c>
       <c r="J21">
+        <v>50</v>
+      </c>
+      <c r="K21">
         <v>60</v>
       </c>
-      <c r="K21">
-        <v>30</v>
-      </c>
       <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
         <v>90</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>15</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>90</v>
       </c>
-      <c r="O21">
-        <v>50</v>
-      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B22">
@@ -6292,26 +6302,26 @@
         <v>59</v>
       </c>
       <c r="J22">
+        <v>32</v>
+      </c>
+      <c r="K22">
         <v>98</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>80</v>
       </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
       <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="N22">
         <v>80</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>70</v>
       </c>
-      <c r="O22">
-        <v>32</v>
-      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B23">
@@ -6339,26 +6349,26 @@
         <v>49</v>
       </c>
       <c r="J23">
+        <v>32</v>
+      </c>
+      <c r="K23">
         <v>20</v>
-      </c>
-      <c r="K23">
-        <v>65</v>
       </c>
       <c r="L23">
         <v>65</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N23">
+        <v>30</v>
+      </c>
+      <c r="O23">
         <v>35</v>
       </c>
-      <c r="O23">
-        <v>32</v>
-      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B24">
@@ -6386,26 +6396,26 @@
         <v>54</v>
       </c>
       <c r="J24">
+        <v>34</v>
+      </c>
+      <c r="K24">
         <v>25</v>
-      </c>
-      <c r="K24">
-        <v>80</v>
       </c>
       <c r="L24">
         <v>80</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="O24">
         <v>40</v>
       </c>
-      <c r="O24">
-        <v>34</v>
-      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B25">
@@ -6433,26 +6443,26 @@
         <v>36</v>
       </c>
       <c r="J25">
+        <v>35</v>
+      </c>
+      <c r="K25">
         <v>50</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>90</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>25</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>15</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>90</v>
       </c>
-      <c r="O25">
-        <v>35</v>
-      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B26">
@@ -6480,26 +6490,26 @@
         <v>25</v>
       </c>
       <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
         <v>90</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>75</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>15</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>10</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
       <c r="O26">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B27">
@@ -6527,26 +6537,26 @@
         <v>85</v>
       </c>
       <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
         <v>5</v>
-      </c>
-      <c r="K27">
-        <v>55</v>
       </c>
       <c r="L27">
         <v>55</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B28">
@@ -6574,26 +6584,26 @@
         <v>75</v>
       </c>
       <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
         <v>95</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>25</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>95</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>15</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
       <c r="O28">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B29">
@@ -6621,26 +6631,26 @@
         <v>85</v>
       </c>
       <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
         <v>5</v>
-      </c>
-      <c r="K29">
-        <v>55</v>
       </c>
       <c r="L29">
         <v>55</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B30">
@@ -6668,26 +6678,26 @@
         <v>25</v>
       </c>
       <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
         <v>75</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>15</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>90</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>10</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
       <c r="O30">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B31">
@@ -6715,26 +6725,26 @@
         <v>85</v>
       </c>
       <c r="J31">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K31">
         <v>55</v>
       </c>
       <c r="L31">
+        <v>55</v>
+      </c>
+      <c r="M31">
         <v>5</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B32">
@@ -6762,26 +6772,26 @@
         <v>75</v>
       </c>
       <c r="J32">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>95</v>
       </c>
       <c r="L32">
+        <v>95</v>
+      </c>
+      <c r="M32">
         <v>25</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>15</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
       <c r="O32">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B33">
@@ -6809,26 +6819,26 @@
         <v>85</v>
       </c>
       <c r="J33">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K33">
         <v>55</v>
       </c>
       <c r="L33">
+        <v>55</v>
+      </c>
+      <c r="M33">
         <v>5</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B34">
@@ -6856,26 +6866,26 @@
         <v>25</v>
       </c>
       <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
         <v>15</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>90</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>75</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>10</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
       <c r="O34">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B35">
@@ -6903,26 +6913,26 @@
         <v>85</v>
       </c>
       <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
         <v>70</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>5</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>70</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B36">
@@ -6950,30 +6960,30 @@
         <v>75</v>
       </c>
       <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
         <v>95</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>25</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>95</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>15</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
       <c r="O36">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B37">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -6997,22 +7007,22 @@
         <v>85</v>
       </c>
       <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
         <v>70</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>70</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7025,7 +7035,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7045,54 +7055,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B2">
@@ -7120,26 +7130,26 @@
         <v>58</v>
       </c>
       <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
         <v>25</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>98</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>75</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>40</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>80</v>
       </c>
-      <c r="O2">
-        <v>35</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B3">
@@ -7167,26 +7177,26 @@
         <v>58</v>
       </c>
       <c r="J3">
+        <v>35</v>
+      </c>
+      <c r="K3">
         <v>75</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>25</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>98</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>40</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>80</v>
       </c>
-      <c r="O3">
-        <v>35</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B4">
@@ -7214,26 +7224,26 @@
         <v>60</v>
       </c>
       <c r="J4">
+        <v>35</v>
+      </c>
+      <c r="K4">
         <v>98</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>85</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>25</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>40</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>90</v>
       </c>
-      <c r="O4">
-        <v>35</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B5">
@@ -7261,26 +7271,26 @@
         <v>95</v>
       </c>
       <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5">
         <v>25</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>60</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>90</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>40</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>60</v>
       </c>
-      <c r="O5">
-        <v>45</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B6">
@@ -7308,26 +7318,26 @@
         <v>127</v>
       </c>
       <c r="J6">
+        <v>33</v>
+      </c>
+      <c r="K6">
         <v>50</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>98</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>85</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>15</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>98</v>
       </c>
-      <c r="O6">
-        <v>33</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B7">
@@ -7355,26 +7365,26 @@
         <v>73</v>
       </c>
       <c r="J7">
+        <v>32</v>
+      </c>
+      <c r="K7">
         <v>70</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>35</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>98</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>20</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>95</v>
       </c>
-      <c r="O7">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B8">
@@ -7402,26 +7412,26 @@
         <v>78</v>
       </c>
       <c r="J8">
+        <v>37</v>
+      </c>
+      <c r="K8">
         <v>98</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>85</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>35</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>98</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>80</v>
       </c>
-      <c r="O8">
-        <v>37</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B9">
@@ -7449,26 +7459,26 @@
         <v>65</v>
       </c>
       <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
         <v>98</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>25</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>75</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>20</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>95</v>
       </c>
-      <c r="O9">
-        <v>50</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B10">
@@ -7496,26 +7506,26 @@
         <v>62</v>
       </c>
       <c r="J10">
+        <v>37</v>
+      </c>
+      <c r="K10">
         <v>25</v>
-      </c>
-      <c r="K10">
-        <v>70</v>
       </c>
       <c r="L10">
         <v>70</v>
       </c>
       <c r="M10">
+        <v>70</v>
+      </c>
+      <c r="N10">
         <v>40</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>50</v>
       </c>
-      <c r="O10">
-        <v>37</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B11">
@@ -7543,26 +7553,26 @@
         <v>67</v>
       </c>
       <c r="J11">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="L11">
         <v>85</v>
       </c>
       <c r="M11">
+        <v>85</v>
+      </c>
+      <c r="N11">
         <v>40</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>60</v>
       </c>
-      <c r="O11">
-        <v>39</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B12">
@@ -7590,26 +7600,26 @@
         <v>60</v>
       </c>
       <c r="J12">
+        <v>32</v>
+      </c>
+      <c r="K12">
         <v>35</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>85</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>98</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>20</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>98</v>
       </c>
-      <c r="O12">
-        <v>32</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B13">
@@ -7637,26 +7647,26 @@
         <v>73</v>
       </c>
       <c r="J13">
+        <v>39</v>
+      </c>
+      <c r="K13">
         <v>90</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>45</v>
-      </c>
-      <c r="L13">
-        <v>98</v>
       </c>
       <c r="M13">
         <v>98</v>
       </c>
       <c r="N13">
+        <v>98</v>
+      </c>
+      <c r="O13">
         <v>80</v>
       </c>
-      <c r="O13">
-        <v>39</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B14">
@@ -7684,26 +7694,26 @@
         <v>58</v>
       </c>
       <c r="J14">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="L14">
         <v>75</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>98</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>40</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>90</v>
       </c>
-      <c r="O14">
-        <v>21</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B15">
@@ -7731,26 +7741,26 @@
         <v>58</v>
       </c>
       <c r="J15">
+        <v>32</v>
+      </c>
+      <c r="K15">
         <v>75</v>
       </c>
-      <c r="K15">
-        <v>30</v>
-      </c>
       <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
         <v>98</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>40</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>90</v>
       </c>
-      <c r="O15">
-        <v>32</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B16">
@@ -7778,26 +7788,26 @@
         <v>66</v>
       </c>
       <c r="J16">
+        <v>36</v>
+      </c>
+      <c r="K16">
         <v>98</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>85</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>35</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>20</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>98</v>
       </c>
-      <c r="O16">
-        <v>36</v>
-      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B17">
@@ -7825,26 +7835,26 @@
         <v>95</v>
       </c>
       <c r="J17">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17">
         <v>70</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>98</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>40</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>70</v>
       </c>
-      <c r="O17">
-        <v>45</v>
-      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B18">
@@ -7872,26 +7882,26 @@
         <v>127</v>
       </c>
       <c r="J18">
+        <v>33</v>
+      </c>
+      <c r="K18">
         <v>55</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>98</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>90</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>15</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>98</v>
       </c>
-      <c r="O18">
-        <v>33</v>
-      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B19">
@@ -7919,26 +7929,26 @@
         <v>58</v>
       </c>
       <c r="J19">
+        <v>58</v>
+      </c>
+      <c r="K19">
         <v>25</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>60</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>75</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>60</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>98</v>
       </c>
-      <c r="O19">
-        <v>58</v>
-      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B20">
@@ -7966,26 +7976,26 @@
         <v>93</v>
       </c>
       <c r="J20">
+        <v>58</v>
+      </c>
+      <c r="K20">
         <v>65</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>80</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>25</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>60</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>98</v>
       </c>
-      <c r="O20">
-        <v>58</v>
-      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B21">
@@ -8013,26 +8023,26 @@
         <v>77</v>
       </c>
       <c r="J21">
+        <v>50</v>
+      </c>
+      <c r="K21">
         <v>75</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>40</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>98</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>20</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>98</v>
       </c>
-      <c r="O21">
-        <v>50</v>
-      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B22">
@@ -8060,26 +8070,26 @@
         <v>82</v>
       </c>
       <c r="J22">
+        <v>33</v>
+      </c>
+      <c r="K22">
         <v>98</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>90</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>40</v>
-      </c>
-      <c r="M22">
-        <v>90</v>
       </c>
       <c r="N22">
         <v>90</v>
       </c>
       <c r="O22">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B23">
@@ -8107,26 +8117,26 @@
         <v>64</v>
       </c>
       <c r="J23">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L23">
         <v>80</v>
       </c>
       <c r="M23">
+        <v>80</v>
+      </c>
+      <c r="N23">
         <v>40</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>60</v>
       </c>
-      <c r="O23">
-        <v>38</v>
-      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B24">
@@ -8154,26 +8164,26 @@
         <v>69</v>
       </c>
       <c r="J24">
+        <v>40</v>
+      </c>
+      <c r="K24">
         <v>35</v>
-      </c>
-      <c r="K24">
-        <v>95</v>
       </c>
       <c r="L24">
         <v>95</v>
       </c>
       <c r="M24">
+        <v>95</v>
+      </c>
+      <c r="N24">
         <v>40</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>70</v>
       </c>
-      <c r="O24">
-        <v>40</v>
-      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B25">
@@ -8201,26 +8211,26 @@
         <v>56</v>
       </c>
       <c r="J25">
+        <v>41</v>
+      </c>
+      <c r="K25">
         <v>75</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>98</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>35</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>20</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>98</v>
       </c>
-      <c r="O25">
-        <v>41</v>
-      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B26">
@@ -8248,26 +8258,26 @@
         <v>25</v>
       </c>
       <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
         <v>98</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>85</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>25</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>15</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
       <c r="O26">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B27">
@@ -8295,26 +8305,26 @@
         <v>90</v>
       </c>
       <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
         <v>5</v>
-      </c>
-      <c r="K27">
-        <v>65</v>
       </c>
       <c r="L27">
         <v>65</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B28">
@@ -8342,26 +8352,26 @@
         <v>75</v>
       </c>
       <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
         <v>98</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>35</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>98</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>20</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
       <c r="O28">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B29">
@@ -8389,26 +8399,26 @@
         <v>90</v>
       </c>
       <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
         <v>5</v>
-      </c>
-      <c r="K29">
-        <v>65</v>
       </c>
       <c r="L29">
         <v>65</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B30">
@@ -8436,26 +8446,26 @@
         <v>25</v>
       </c>
       <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
         <v>85</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>25</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>98</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>15</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
       <c r="O30">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B31">
@@ -8483,26 +8493,26 @@
         <v>90</v>
       </c>
       <c r="J31">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K31">
         <v>65</v>
       </c>
       <c r="L31">
+        <v>65</v>
+      </c>
+      <c r="M31">
         <v>5</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B32">
@@ -8530,26 +8540,26 @@
         <v>75</v>
       </c>
       <c r="J32">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>98</v>
       </c>
       <c r="L32">
+        <v>98</v>
+      </c>
+      <c r="M32">
         <v>35</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>20</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
       <c r="O32">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B33">
@@ -8577,26 +8587,26 @@
         <v>90</v>
       </c>
       <c r="J33">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K33">
         <v>65</v>
       </c>
       <c r="L33">
+        <v>65</v>
+      </c>
+      <c r="M33">
         <v>5</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B34">
@@ -8624,26 +8634,26 @@
         <v>25</v>
       </c>
       <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
         <v>25</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>98</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>85</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>15</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
       <c r="O34">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B35">
@@ -8671,26 +8681,26 @@
         <v>90</v>
       </c>
       <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
         <v>80</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>5</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>80</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B36">
@@ -8718,30 +8728,30 @@
         <v>75</v>
       </c>
       <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
         <v>98</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>35</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>98</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>20</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
       <c r="O36">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B37">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -8765,22 +8775,22 @@
         <v>90</v>
       </c>
       <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
         <v>80</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>80</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27175,7 +27185,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection sqref="A1:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27197,54 +27207,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B2">
@@ -27272,26 +27282,26 @@
         <v>8</v>
       </c>
       <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>50</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>25</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>20</v>
       </c>
-      <c r="O2">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B3">
@@ -27319,26 +27329,26 @@
         <v>8</v>
       </c>
       <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
         <v>25</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>50</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>20</v>
       </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B4">
@@ -27366,26 +27376,26 @@
         <v>10</v>
       </c>
       <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
         <v>75</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>50</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
       </c>
       <c r="M4">
         <v>5</v>
       </c>
       <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
         <v>25</v>
       </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B5">
@@ -27413,26 +27423,26 @@
         <v>45</v>
       </c>
       <c r="J5">
+        <v>28</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>15</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>50</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>15</v>
       </c>
-      <c r="O5">
-        <v>28</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B6">
@@ -27460,26 +27470,26 @@
         <v>77</v>
       </c>
       <c r="J6">
+        <v>29</v>
+      </c>
+      <c r="K6">
         <v>25</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>75</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>50</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>50</v>
       </c>
-      <c r="O6">
-        <v>29</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B7">
@@ -27507,26 +27517,26 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K7">
+        <v>30</v>
+      </c>
+      <c r="L7">
         <v>15</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>60</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B8">
@@ -27554,26 +27564,26 @@
         <v>22</v>
       </c>
       <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
         <v>75</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>50</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>15</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>50</v>
       </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
       <c r="O8">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B9">
@@ -27601,26 +27611,26 @@
         <v>19</v>
       </c>
       <c r="J9">
+        <v>47</v>
+      </c>
+      <c r="K9">
         <v>60</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
-        <v>30</v>
-      </c>
       <c r="M9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B10">
@@ -27648,26 +27658,26 @@
         <v>12</v>
       </c>
       <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10">
         <v>5</v>
-      </c>
-      <c r="K10">
-        <v>35</v>
       </c>
       <c r="L10">
         <v>35</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>5</v>
       </c>
       <c r="O10">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B11">
@@ -27695,26 +27705,26 @@
         <v>16</v>
       </c>
       <c r="J11">
+        <v>28</v>
+      </c>
+      <c r="K11">
         <v>10</v>
-      </c>
-      <c r="K11">
-        <v>50</v>
       </c>
       <c r="L11">
         <v>50</v>
       </c>
       <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11">
         <v>5</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>10</v>
       </c>
-      <c r="O11">
-        <v>28</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B12">
@@ -27742,26 +27752,26 @@
         <v>10</v>
       </c>
       <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
         <v>15</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>50</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>75</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>50</v>
       </c>
-      <c r="O12">
-        <v>9</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B13">
@@ -27789,26 +27799,26 @@
         <v>21</v>
       </c>
       <c r="J13">
+        <v>28</v>
+      </c>
+      <c r="K13">
         <v>70</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>25</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>90</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>50</v>
       </c>
-      <c r="N13">
-        <v>30</v>
-      </c>
       <c r="O13">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B14">
@@ -27836,26 +27846,26 @@
         <v>8</v>
       </c>
       <c r="J14">
+        <v>17</v>
+      </c>
+      <c r="K14">
         <v>10</v>
       </c>
-      <c r="K14">
-        <v>30</v>
-      </c>
       <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
         <v>60</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5</v>
       </c>
-      <c r="N14">
-        <v>30</v>
-      </c>
       <c r="O14">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B15">
@@ -27883,26 +27893,26 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15">
+        <v>30</v>
+      </c>
+      <c r="L15">
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>60</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5</v>
       </c>
-      <c r="N15">
-        <v>30</v>
-      </c>
       <c r="O15">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B16">
@@ -27930,26 +27940,26 @@
         <v>11</v>
       </c>
       <c r="J16">
+        <v>32</v>
+      </c>
+      <c r="K16">
         <v>75</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>50</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>15</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>40</v>
       </c>
-      <c r="O16">
-        <v>32</v>
-      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B17">
@@ -27977,26 +27987,26 @@
         <v>45</v>
       </c>
       <c r="J17">
+        <v>28</v>
+      </c>
+      <c r="K17">
         <v>10</v>
       </c>
-      <c r="K17">
-        <v>30</v>
-      </c>
       <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
         <v>60</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>5</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>25</v>
       </c>
-      <c r="O17">
-        <v>28</v>
-      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B18">
@@ -28024,26 +28034,26 @@
         <v>77</v>
       </c>
       <c r="J18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
+        <v>30</v>
+      </c>
+      <c r="L18">
         <v>90</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>60</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>60</v>
       </c>
-      <c r="O18">
-        <v>29</v>
-      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B19">
@@ -28071,26 +28081,26 @@
         <v>8</v>
       </c>
       <c r="J19">
+        <v>21</v>
+      </c>
+      <c r="K19">
         <v>5</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>90</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>5</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>10</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>50</v>
       </c>
-      <c r="O19">
-        <v>21</v>
-      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B20">
@@ -28118,26 +28128,26 @@
         <v>13</v>
       </c>
       <c r="J20">
+        <v>21</v>
+      </c>
+      <c r="K20">
         <v>95</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
         <v>10</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>55</v>
       </c>
-      <c r="O20">
-        <v>21</v>
-      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B21">
@@ -28165,26 +28175,26 @@
         <v>22</v>
       </c>
       <c r="J21">
+        <v>31</v>
+      </c>
+      <c r="K21">
         <v>35</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>20</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>70</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>40</v>
       </c>
-      <c r="O21">
-        <v>31</v>
-      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B22">
@@ -28212,26 +28222,26 @@
         <v>24</v>
       </c>
       <c r="J22">
+        <v>28</v>
+      </c>
+      <c r="K22">
         <v>90</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>60</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>20</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>45</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>40</v>
       </c>
-      <c r="O22">
-        <v>28</v>
-      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B23">
@@ -28259,26 +28269,26 @@
         <v>16</v>
       </c>
       <c r="J23">
+        <v>27</v>
+      </c>
+      <c r="K23">
         <v>10</v>
-      </c>
-      <c r="K23">
-        <v>40</v>
       </c>
       <c r="L23">
         <v>40</v>
       </c>
       <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
         <v>5</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>15</v>
       </c>
-      <c r="O23">
-        <v>27</v>
-      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B24">
@@ -28306,26 +28316,26 @@
         <v>18</v>
       </c>
       <c r="J24">
+        <v>29</v>
+      </c>
+      <c r="K24">
         <v>15</v>
-      </c>
-      <c r="K24">
-        <v>45</v>
       </c>
       <c r="L24">
         <v>45</v>
       </c>
       <c r="M24">
+        <v>45</v>
+      </c>
+      <c r="N24">
         <v>5</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>20</v>
       </c>
-      <c r="O24">
-        <v>29</v>
-      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B25">
@@ -28356,23 +28366,23 @@
         <v>30</v>
       </c>
       <c r="K25">
+        <v>30</v>
+      </c>
+      <c r="L25">
         <v>60</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>15</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>50</v>
       </c>
-      <c r="O25">
-        <v>30</v>
-      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B26">
@@ -28400,26 +28410,26 @@
         <v>25</v>
       </c>
       <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
         <v>75</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>50</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>5</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B27">
@@ -28447,26 +28457,26 @@
         <v>75</v>
       </c>
       <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
         <v>5</v>
-      </c>
-      <c r="K27">
-        <v>35</v>
       </c>
       <c r="L27">
         <v>35</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B28">
@@ -28494,26 +28504,26 @@
         <v>75</v>
       </c>
       <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
         <v>75</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>15</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>75</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B29">
@@ -28541,26 +28551,26 @@
         <v>75</v>
       </c>
       <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
         <v>15</v>
-      </c>
-      <c r="K29">
-        <v>35</v>
       </c>
       <c r="L29">
         <v>35</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B30">
@@ -28588,26 +28598,26 @@
         <v>25</v>
       </c>
       <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
         <v>50</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>5</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>75</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B31">
@@ -28635,26 +28645,26 @@
         <v>75</v>
       </c>
       <c r="J31">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="K31">
         <v>35</v>
       </c>
       <c r="L31">
+        <v>35</v>
+      </c>
+      <c r="M31">
         <v>5</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B32">
@@ -28682,26 +28692,26 @@
         <v>75</v>
       </c>
       <c r="J32">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>75</v>
       </c>
       <c r="L32">
+        <v>75</v>
+      </c>
+      <c r="M32">
         <v>15</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B33">
@@ -28729,26 +28739,26 @@
         <v>75</v>
       </c>
       <c r="J33">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="K33">
         <v>35</v>
       </c>
       <c r="L33">
+        <v>35</v>
+      </c>
+      <c r="M33">
         <v>5</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B34">
@@ -28776,26 +28786,26 @@
         <v>25</v>
       </c>
       <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
         <v>5</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>75</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>50</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B35">
@@ -28823,26 +28833,26 @@
         <v>75</v>
       </c>
       <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
         <v>50</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>5</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>50</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B36">
@@ -28870,30 +28880,30 @@
         <v>75</v>
       </c>
       <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
         <v>75</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>15</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>75</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B37">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -28917,22 +28927,22 @@
         <v>75</v>
       </c>
       <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
         <v>50</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>50</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
